--- a/Scripts/ofcnationscup/ofcnationscup.xlsx
+++ b/Scripts/ofcnationscup/ofcnationscup.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="472" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="472" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1973" sheetId="1" r:id="rId1"/>
     <sheet name="1980" sheetId="2" r:id="rId2"/>
+    <sheet name="1996" sheetId="3" r:id="rId3"/>
+    <sheet name="1998" sheetId="4" r:id="rId4"/>
+    <sheet name="2000" sheetId="5" r:id="rId5"/>
+    <sheet name="2002" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -98,7 +102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -107,6 +111,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1980,7 +1985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3963,4 +3968,6057 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>'1980'!A25 + 1</f>
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1995-11-10"</f>
+        <v>1995-11-10</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G7" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (27, '1995-11-10', 4, 64);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1995-11-15"</f>
+        <v>1995-11-15</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>61</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (28, '1995-11-15', 4, 61);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" si="1">A3+1</f>
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1995-11-17"</f>
+        <v>1995-11-17</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>677</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (29, '1995-11-17', 4, 677);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1996-05-11"</f>
+        <v>1996-05-11</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>689</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (30, '1996-05-11', 4, 689);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1996-10-27"</f>
+        <v>1996-10-27</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6" si="2">D5</f>
+        <v>689</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (31, '1996-10-27', 6, 689);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1996-11-01"</f>
+        <v>1996-11-01</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>61</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (32, '1996-11-01', 6, 61);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f>'1980'!A83 + 1</f>
+        <v>105</v>
+      </c>
+      <c r="B10" s="3">
+        <f>A2</f>
+        <v>27</v>
+      </c>
+      <c r="C10" s="3">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f t="shared" ref="G10:G33" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (105, 27, 64, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f>A10+1</f>
+        <v>106</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B10</f>
+        <v>27</v>
+      </c>
+      <c r="C11" s="3">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (106, 27, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" ref="A12:A17" si="4">A11+1</f>
+        <v>107</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B10</f>
+        <v>27</v>
+      </c>
+      <c r="C12" s="3">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (107, 27, 61, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B10</f>
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (108, 27, 61, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>28</v>
+      </c>
+      <c r="C14" s="4">
+        <v>64</v>
+      </c>
+      <c r="D14" s="4">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (109, 28, 64, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>28</v>
+      </c>
+      <c r="C15" s="4">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (110, 28, 64, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>28</v>
+      </c>
+      <c r="C16" s="4">
+        <v>61</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (111, 28, 61, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>28</v>
+      </c>
+      <c r="C17" s="4">
+        <v>61</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (112, 28, 61, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f>A17+1</f>
+        <v>113</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B14+1</f>
+        <v>29</v>
+      </c>
+      <c r="C18" s="3">
+        <v>677</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (113, 29, 677, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f>A18+1</f>
+        <v>114</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B18</f>
+        <v>29</v>
+      </c>
+      <c r="C19" s="3">
+        <v>677</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (114, 29, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f>A19+1</f>
+        <v>115</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B18</f>
+        <v>29</v>
+      </c>
+      <c r="C20" s="3">
+        <v>689</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (115, 29, 689, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f>A20+1</f>
+        <v>116</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B18</f>
+        <v>29</v>
+      </c>
+      <c r="C21" s="3">
+        <v>689</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (116, 29, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f>A21+1</f>
+        <v>117</v>
+      </c>
+      <c r="B22">
+        <f>B18+1</f>
+        <v>30</v>
+      </c>
+      <c r="C22" s="4">
+        <v>689</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (117, 30, 689, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <f t="shared" ref="A23:A33" si="5">A22+1</f>
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <f>B22</f>
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>689</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (118, 30, 689, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <f>B22</f>
+        <v>30</v>
+      </c>
+      <c r="C24" s="4">
+        <v>677</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (119, 30, 677, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <f>B22</f>
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>677</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (120, 30, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="5"/>
+        <v>121</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B22+1</f>
+        <v>31</v>
+      </c>
+      <c r="C26" s="3">
+        <v>689</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (121, 31, 689, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B26</f>
+        <v>31</v>
+      </c>
+      <c r="C27" s="3">
+        <v>689</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (122, 31, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="5"/>
+        <v>123</v>
+      </c>
+      <c r="B28" s="3">
+        <f>B26</f>
+        <v>31</v>
+      </c>
+      <c r="C28" s="3">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3">
+        <v>6</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 31, 61, 6, 3, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="5"/>
+        <v>124</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B26</f>
+        <v>31</v>
+      </c>
+      <c r="C29" s="3">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 31, 61, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <f>B26+1</f>
+        <v>32</v>
+      </c>
+      <c r="C30" s="4">
+        <v>61</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>3</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 32, 61, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="5"/>
+        <v>126</v>
+      </c>
+      <c r="B31">
+        <f>B30</f>
+        <v>32</v>
+      </c>
+      <c r="C31" s="4">
+        <v>61</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 32, 61, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="B32">
+        <f>B30</f>
+        <v>32</v>
+      </c>
+      <c r="C32" s="4">
+        <v>689</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 32, 689, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="B33">
+        <f>B30</f>
+        <v>32</v>
+      </c>
+      <c r="C33" s="4">
+        <v>689</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 32, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>'1980'!A9 + 1</f>
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G7" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (9, 1998, 'A', 64);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A7" si="1">A2+1</f>
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B7" si="2">B2</f>
+        <v>1998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>689</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (10, 1998, 'A', 689);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>678</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (11, 1998, 'A', 678);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>61</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (12, 1998, 'B', 61);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>679</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (13, 1998, 'B', 679);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>1998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>682</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (14, 1998, 'B', 682);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A9 &amp; ", '" &amp; B9 &amp; "', " &amp; C9 &amp; ", " &amp; D9 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f>'1996'!A7 + 1</f>
+        <v>33</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1998-09-25"</f>
+        <v>1998-09-25</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G19" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (33, '1998-09-25', 2, 61);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1998-09-28"</f>
+        <v>1998-09-28</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D19" si="4">D10</f>
+        <v>61</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (34, '1998-09-28', 2, 61);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A19" si="5">A11+1</f>
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1998-09-30"</f>
+        <v>1998-09-30</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (35, '1998-09-30', 2, 61);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1998-09-25"</f>
+        <v>1998-09-25</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (36, '1998-09-25', 2, 61);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1998-09-28"</f>
+        <v>1998-09-28</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (37, '1998-09-28', 2, 61);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1998-09-30"</f>
+        <v>1998-09-30</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (38, '1998-09-30', 2, 61);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1998-10-02"</f>
+        <v>1998-10-02</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (39, '1998-10-02', 4, 61);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1998-10-02"</f>
+        <v>1998-10-02</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (40, '1998-10-02', 4, 61);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1998-10-04"</f>
+        <v>1998-10-04</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (41, '1998-10-04', 5, 61);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1998-10-04"</f>
+        <v>1998-10-04</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (42, '1998-10-04', 6, 61);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A21 &amp; ", " &amp; B21 &amp; ", " &amp; C21 &amp; ", " &amp; D21 &amp; ", " &amp; E21 &amp; ", " &amp; F21 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f>'1996'!A33 + 1</f>
+        <v>129</v>
+      </c>
+      <c r="B22" s="3">
+        <f>A10</f>
+        <v>33</v>
+      </c>
+      <c r="C22" s="3">
+        <v>64</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G61" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A22 &amp; ", " &amp; B22 &amp; ", " &amp; C22 &amp; ", " &amp; D22 &amp; ", " &amp; E22 &amp; ", " &amp; F22 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 33, 64, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>A22+1</f>
+        <v>130</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B22</f>
+        <v>33</v>
+      </c>
+      <c r="C23" s="3">
+        <v>64</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 33, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" ref="A24:A29" si="7">A23+1</f>
+        <v>131</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B22</f>
+        <v>33</v>
+      </c>
+      <c r="C24" s="3">
+        <v>689</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (131, 33, 689, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B22</f>
+        <v>33</v>
+      </c>
+      <c r="C25" s="3">
+        <v>689</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (132, 33, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="7"/>
+        <v>133</v>
+      </c>
+      <c r="B26">
+        <f>B22+1</f>
+        <v>34</v>
+      </c>
+      <c r="C26" s="5">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (133, 34, 64, 8, 3, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="7"/>
+        <v>134</v>
+      </c>
+      <c r="B27">
+        <f>B26</f>
+        <v>34</v>
+      </c>
+      <c r="C27" s="5">
+        <v>64</v>
+      </c>
+      <c r="D27" s="5">
+        <v>6</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (134, 34, 64, 6, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="B28">
+        <f>B26</f>
+        <v>34</v>
+      </c>
+      <c r="C28" s="5">
+        <v>678</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (135, 34, 678, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="7"/>
+        <v>136</v>
+      </c>
+      <c r="B29">
+        <f>B26</f>
+        <v>34</v>
+      </c>
+      <c r="C29" s="5">
+        <v>678</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (136, 34, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>A29+1</f>
+        <v>137</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B26+1</f>
+        <v>35</v>
+      </c>
+      <c r="C30" s="3">
+        <v>689</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (137, 35, 689, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f>A30+1</f>
+        <v>138</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B30</f>
+        <v>35</v>
+      </c>
+      <c r="C31" s="3">
+        <v>689</v>
+      </c>
+      <c r="D31" s="3">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (138, 35, 689, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f>A31+1</f>
+        <v>139</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B30</f>
+        <v>35</v>
+      </c>
+      <c r="C32" s="3">
+        <v>678</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (139, 35, 678, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f>A32+1</f>
+        <v>140</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B30</f>
+        <v>35</v>
+      </c>
+      <c r="C33" s="3">
+        <v>678</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (140, 35, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f>A33+1</f>
+        <v>141</v>
+      </c>
+      <c r="B34">
+        <f>B30+1</f>
+        <v>36</v>
+      </c>
+      <c r="C34" s="4">
+        <v>61</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (141, 36, 61, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" ref="A35:A61" si="8">A34+1</f>
+        <v>142</v>
+      </c>
+      <c r="B35">
+        <f>B34</f>
+        <v>36</v>
+      </c>
+      <c r="C35" s="4">
+        <v>61</v>
+      </c>
+      <c r="D35" s="4">
+        <v>3</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (142, 36, 61, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="8"/>
+        <v>143</v>
+      </c>
+      <c r="B36">
+        <f>B34</f>
+        <v>36</v>
+      </c>
+      <c r="C36" s="4">
+        <v>679</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (143, 36, 679, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+      <c r="B37">
+        <f>B34</f>
+        <v>36</v>
+      </c>
+      <c r="C37" s="4">
+        <v>679</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (144, 36, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="8"/>
+        <v>145</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B34+1</f>
+        <v>37</v>
+      </c>
+      <c r="C38" s="3">
+        <v>61</v>
+      </c>
+      <c r="D38" s="3">
+        <v>16</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (145, 37, 61, 16, 3, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B38</f>
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <v>61</v>
+      </c>
+      <c r="D39" s="3">
+        <v>8</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (146, 37, 61, 8, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="8"/>
+        <v>147</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B38</f>
+        <v>37</v>
+      </c>
+      <c r="C40" s="3">
+        <v>682</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (147, 37, 682, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="8"/>
+        <v>148</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B38</f>
+        <v>37</v>
+      </c>
+      <c r="C41" s="3">
+        <v>682</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (148, 37, 682, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="8"/>
+        <v>149</v>
+      </c>
+      <c r="B42">
+        <f>B38+1</f>
+        <v>38</v>
+      </c>
+      <c r="C42" s="4">
+        <v>679</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (149, 38, 679, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="B43">
+        <f>B42</f>
+        <v>38</v>
+      </c>
+      <c r="C43" s="4">
+        <v>679</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (150, 38, 679, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="8"/>
+        <v>151</v>
+      </c>
+      <c r="B44">
+        <f>B42</f>
+        <v>38</v>
+      </c>
+      <c r="C44" s="4">
+        <v>682</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (151, 38, 682, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="8"/>
+        <v>152</v>
+      </c>
+      <c r="B45">
+        <f>B42</f>
+        <v>38</v>
+      </c>
+      <c r="C45" s="4">
+        <v>682</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (152, 38, 682, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="8"/>
+        <v>153</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B42+1</f>
+        <v>39</v>
+      </c>
+      <c r="C46" s="3">
+        <v>64</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (153, 39, 64, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="8"/>
+        <v>154</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B46</f>
+        <v>39</v>
+      </c>
+      <c r="C47" s="3">
+        <v>64</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (154, 39, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="8"/>
+        <v>155</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B46</f>
+        <v>39</v>
+      </c>
+      <c r="C48" s="3">
+        <v>679</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 39, 679, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="8"/>
+        <v>156</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B46</f>
+        <v>39</v>
+      </c>
+      <c r="C49" s="3">
+        <v>679</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (156, 39, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="8"/>
+        <v>157</v>
+      </c>
+      <c r="B50">
+        <f>B46+1</f>
+        <v>40</v>
+      </c>
+      <c r="C50" s="4">
+        <v>61</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (157, 40, 61, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="8"/>
+        <v>158</v>
+      </c>
+      <c r="B51">
+        <f>B50</f>
+        <v>40</v>
+      </c>
+      <c r="C51" s="4">
+        <v>61</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (158, 40, 61, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="8"/>
+        <v>159</v>
+      </c>
+      <c r="B52">
+        <f>B50</f>
+        <v>40</v>
+      </c>
+      <c r="C52" s="4">
+        <v>689</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 40, 689, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="8"/>
+        <v>160</v>
+      </c>
+      <c r="B53">
+        <f>B50</f>
+        <v>40</v>
+      </c>
+      <c r="C53" s="4">
+        <v>689</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 40, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B50+1</f>
+        <v>41</v>
+      </c>
+      <c r="C54" s="3">
+        <v>679</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 41, 679, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="8"/>
+        <v>162</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B54</f>
+        <v>41</v>
+      </c>
+      <c r="C55" s="3">
+        <v>679</v>
+      </c>
+      <c r="D55" s="3">
+        <v>4</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 41, 679, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="8"/>
+        <v>163</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B54</f>
+        <v>41</v>
+      </c>
+      <c r="C56" s="3">
+        <v>689</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (163, 41, 689, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B54</f>
+        <v>41</v>
+      </c>
+      <c r="C57" s="3">
+        <v>689</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (164, 41, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="8"/>
+        <v>165</v>
+      </c>
+      <c r="B58">
+        <f>B54+1</f>
+        <v>42</v>
+      </c>
+      <c r="C58" s="4">
+        <v>64</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (165, 42, 64, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="8"/>
+        <v>166</v>
+      </c>
+      <c r="B59">
+        <f>B58</f>
+        <v>42</v>
+      </c>
+      <c r="C59" s="4">
+        <v>64</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (166, 42, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="8"/>
+        <v>167</v>
+      </c>
+      <c r="B60">
+        <f>B58</f>
+        <v>42</v>
+      </c>
+      <c r="C60" s="4">
+        <v>61</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 42, 61, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="8"/>
+        <v>168</v>
+      </c>
+      <c r="B61">
+        <f>B58</f>
+        <v>42</v>
+      </c>
+      <c r="C61" s="4">
+        <v>61</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 42, 61, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>'1998'!A7 + 1</f>
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G7" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (15, 2000, 'A', 61);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A7" si="1">A2+1</f>
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B7" si="2">B2</f>
+        <v>2000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>677</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (16, 2000, 'A', 677);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>682</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (17, 2000, 'A', 682);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>64</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (18, 2000, 'B', 64);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>678</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (19, 2000, 'B', 678);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>689</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (20, 2000, 'B', 689);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A9 &amp; ", '" &amp; B9 &amp; "', " &amp; C9 &amp; ", " &amp; D9 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f>'1998'!A19 + 1</f>
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"2000-07-19"</f>
+        <v>2000-07-19</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>689</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G19" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A10 &amp; ", '" &amp; B10 &amp; "', " &amp; C10 &amp; ", " &amp; D10 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (43, '2000-07-19', 2, 689);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2000-07-21"</f>
+        <v>2000-07-21</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D19" si="4">D10</f>
+        <v>689</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (44, '2000-07-21', 2, 689);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A19" si="5">A11+1</f>
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2000-07-23"</f>
+        <v>2000-07-23</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (45, '2000-07-23', 2, 689);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2000-07-19"</f>
+        <v>2000-07-19</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (46, '2000-07-19', 2, 689);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2000-07-21"</f>
+        <v>2000-07-21</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (47, '2000-07-21', 2, 689);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2000-07-22"</f>
+        <v>2000-07-22</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (48, '2000-07-22', 2, 689);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2000-07-25"</f>
+        <v>2000-07-25</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (49, '2000-07-25', 4, 689);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2000-07-25"</f>
+        <v>2000-07-25</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (50, '2000-07-25', 4, 689);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2000-07-28"</f>
+        <v>2000-07-28</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (51, '2000-07-28', 5, 689);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2000-07-28"</f>
+        <v>2000-07-28</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>689</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (52, '2000-07-28', 6, 689);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A21 &amp; ", " &amp; B21 &amp; ", " &amp; C21 &amp; ", " &amp; D21 &amp; ", " &amp; E21 &amp; ", " &amp; F21 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f>'1998'!A61 + 1</f>
+        <v>169</v>
+      </c>
+      <c r="B22" s="3">
+        <f>A10</f>
+        <v>43</v>
+      </c>
+      <c r="C22" s="3">
+        <v>61</v>
+      </c>
+      <c r="D22" s="3">
+        <v>17</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" ref="G22:G61" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A22 &amp; ", " &amp; B22 &amp; ", " &amp; C22 &amp; ", " &amp; D22 &amp; ", " &amp; E22 &amp; ", " &amp; F22 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 43, 61, 17, 3, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>A22+1</f>
+        <v>170</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B22</f>
+        <v>43</v>
+      </c>
+      <c r="C23" s="3">
+        <v>61</v>
+      </c>
+      <c r="D23" s="3">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 43, 61, 7, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" ref="A24:A29" si="7">A23+1</f>
+        <v>171</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B22</f>
+        <v>43</v>
+      </c>
+      <c r="C24" s="3">
+        <v>682</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (171, 43, 682, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="7"/>
+        <v>172</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B22</f>
+        <v>43</v>
+      </c>
+      <c r="C25" s="3">
+        <v>682</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (172, 43, 682, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="7"/>
+        <v>173</v>
+      </c>
+      <c r="B26">
+        <f>B22+1</f>
+        <v>44</v>
+      </c>
+      <c r="C26" s="5">
+        <v>677</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (173, 44, 677, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="7"/>
+        <v>174</v>
+      </c>
+      <c r="B27">
+        <f>B26</f>
+        <v>44</v>
+      </c>
+      <c r="C27" s="5">
+        <v>677</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (174, 44, 677, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="7"/>
+        <v>175</v>
+      </c>
+      <c r="B28">
+        <f>B26</f>
+        <v>44</v>
+      </c>
+      <c r="C28" s="5">
+        <v>682</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 44, 682, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="B29">
+        <f>B26</f>
+        <v>44</v>
+      </c>
+      <c r="C29" s="5">
+        <v>682</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 44, 682, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>A29+1</f>
+        <v>177</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B26+1</f>
+        <v>45</v>
+      </c>
+      <c r="C30" s="3">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 45, 61, 6, 3, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f>A30+1</f>
+        <v>178</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B30</f>
+        <v>45</v>
+      </c>
+      <c r="C31" s="3">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 45, 61, 6, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f>A31+1</f>
+        <v>179</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B30</f>
+        <v>45</v>
+      </c>
+      <c r="C32" s="3">
+        <v>677</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (179, 45, 677, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f>A32+1</f>
+        <v>180</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B30</f>
+        <v>45</v>
+      </c>
+      <c r="C33" s="3">
+        <v>677</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (180, 45, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f>A33+1</f>
+        <v>181</v>
+      </c>
+      <c r="B34">
+        <f>B30+1</f>
+        <v>46</v>
+      </c>
+      <c r="C34" s="4">
+        <v>64</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (181, 46, 64, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" ref="A35:A61" si="8">A34+1</f>
+        <v>182</v>
+      </c>
+      <c r="B35">
+        <f>B34</f>
+        <v>46</v>
+      </c>
+      <c r="C35" s="4">
+        <v>64</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (182, 46, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="8"/>
+        <v>183</v>
+      </c>
+      <c r="B36">
+        <f>B34</f>
+        <v>46</v>
+      </c>
+      <c r="C36" s="4">
+        <v>689</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (183, 46, 689, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+      <c r="B37">
+        <f>B34</f>
+        <v>46</v>
+      </c>
+      <c r="C37" s="4">
+        <v>689</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (184, 46, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="8"/>
+        <v>185</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B34+1</f>
+        <v>47</v>
+      </c>
+      <c r="C38" s="3">
+        <v>64</v>
+      </c>
+      <c r="D38" s="3">
+        <v>3</v>
+      </c>
+      <c r="E38" s="6">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (185, 47, 64, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="8"/>
+        <v>186</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B38</f>
+        <v>47</v>
+      </c>
+      <c r="C39" s="3">
+        <v>64</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (186, 47, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B38</f>
+        <v>47</v>
+      </c>
+      <c r="C40" s="3">
+        <v>678</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (187, 47, 678, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="8"/>
+        <v>188</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B38</f>
+        <v>47</v>
+      </c>
+      <c r="C41" s="3">
+        <v>678</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (188, 47, 678, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="8"/>
+        <v>189</v>
+      </c>
+      <c r="B42">
+        <f>B38+1</f>
+        <v>48</v>
+      </c>
+      <c r="C42" s="4">
+        <v>678</v>
+      </c>
+      <c r="D42" s="4">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (189, 48, 678, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="B43">
+        <f>B42</f>
+        <v>48</v>
+      </c>
+      <c r="C43" s="4">
+        <v>678</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (190, 48, 678, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="8"/>
+        <v>191</v>
+      </c>
+      <c r="B44">
+        <f>B42</f>
+        <v>48</v>
+      </c>
+      <c r="C44" s="4">
+        <v>689</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (191, 48, 689, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="B45">
+        <f>B42</f>
+        <v>48</v>
+      </c>
+      <c r="C45" s="4">
+        <v>689</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (192, 48, 689, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="8"/>
+        <v>193</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B42+1</f>
+        <v>49</v>
+      </c>
+      <c r="C46" s="3">
+        <v>61</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (193, 49, 61, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="8"/>
+        <v>194</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B46</f>
+        <v>49</v>
+      </c>
+      <c r="C47" s="3">
+        <v>61</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (194, 49, 61, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B46</f>
+        <v>49</v>
+      </c>
+      <c r="C48" s="3">
+        <v>678</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (195, 49, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B46</f>
+        <v>49</v>
+      </c>
+      <c r="C49" s="3">
+        <v>678</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (196, 49, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="8"/>
+        <v>197</v>
+      </c>
+      <c r="B50">
+        <f>B46+1</f>
+        <v>50</v>
+      </c>
+      <c r="C50" s="4">
+        <v>64</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (197, 50, 64, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="8"/>
+        <v>198</v>
+      </c>
+      <c r="B51">
+        <f>B50</f>
+        <v>50</v>
+      </c>
+      <c r="C51" s="4">
+        <v>64</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (198, 50, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="B52">
+        <f>B50</f>
+        <v>50</v>
+      </c>
+      <c r="C52" s="4">
+        <v>677</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (199, 50, 677, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="B53">
+        <f>B50</f>
+        <v>50</v>
+      </c>
+      <c r="C53" s="4">
+        <v>677</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (200, 50, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="8"/>
+        <v>201</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B50+1</f>
+        <v>51</v>
+      </c>
+      <c r="C54" s="3">
+        <v>677</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (201, 51, 677, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="8"/>
+        <v>202</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B54</f>
+        <v>51</v>
+      </c>
+      <c r="C55" s="3">
+        <v>677</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (202, 51, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="8"/>
+        <v>203</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B54</f>
+        <v>51</v>
+      </c>
+      <c r="C56" s="3">
+        <v>678</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (203, 51, 678, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B54</f>
+        <v>51</v>
+      </c>
+      <c r="C57" s="3">
+        <v>678</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (204, 51, 678, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="8"/>
+        <v>205</v>
+      </c>
+      <c r="B58">
+        <f>B54+1</f>
+        <v>52</v>
+      </c>
+      <c r="C58" s="4">
+        <v>61</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (205, 52, 61, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="B59">
+        <f>B58</f>
+        <v>52</v>
+      </c>
+      <c r="C59" s="4">
+        <v>61</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (206, 52, 61, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="8"/>
+        <v>207</v>
+      </c>
+      <c r="B60">
+        <f>B58</f>
+        <v>52</v>
+      </c>
+      <c r="C60" s="4">
+        <v>64</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (207, 52, 64, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="8"/>
+        <v>208</v>
+      </c>
+      <c r="B61">
+        <f>B58</f>
+        <v>52</v>
+      </c>
+      <c r="C61" s="4">
+        <v>64</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (208, 52, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>'2000'!A7 + 1</f>
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>2002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>679</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (21, 2002, 'A', 679);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A9" si="1">A2+1</f>
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="2">B2</f>
+        <v>2002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>687</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (22, 2002, 'A', 687);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2002</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>61</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (23, 2002, 'A', 61);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2002</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>678</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (24, 2002, 'A', 678);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>675</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (25, 2002, 'B', 675);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>677</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (26, 2002, 'B', 677);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>61</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (27, 2002, 'B', 61);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>2002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>689</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (28, 2002, 'B', 689);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f>'2000'!A19 + 1</f>
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2002-07-06"</f>
+        <v>2002-07-06</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G27" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (53, '2002-07-06', 2, 64);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2002-07-06"</f>
+        <v>2002-07-06</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>64</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (54, '2002-07-06', 2, 64);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A27" si="4">A13+1</f>
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2002-07-08"</f>
+        <v>2002-07-08</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f>D13</f>
+        <v>64</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (55, '2002-07-08', 2, 64);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2002-07-08"</f>
+        <v>2002-07-08</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>D14</f>
+        <v>64</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (56, '2002-07-08', 2, 64);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2002-07-10"</f>
+        <v>2002-07-10</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>D15</f>
+        <v>64</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (57, '2002-07-10', 2, 64);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2002-07-10"</f>
+        <v>2002-07-10</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>D16</f>
+        <v>64</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (58, '2002-07-10', 2, 64);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2002-07-05"</f>
+        <v>2002-07-05</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D23" si="5">D17</f>
+        <v>64</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (59, '2002-07-05', 2, 64);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2002-07-05"</f>
+        <v>2002-07-05</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (60, '2002-07-05', 2, 64);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2002-07-07"</f>
+        <v>2002-07-07</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (61, '2002-07-07', 2, 64);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2002-07-07"</f>
+        <v>2002-07-07</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (62, '2002-07-07', 2, 64);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2002-07-09"</f>
+        <v>2002-07-09</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (63, '2002-07-09', 2, 64);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2002-07-09"</f>
+        <v>2002-07-09</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (64, '2002-07-09', 2, 64);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2002-07-12"</f>
+        <v>2002-07-12</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f>D17</f>
+        <v>64</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (65, '2002-07-12', 4, 64);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"2002-07-12"</f>
+        <v>2002-07-12</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f>D24</f>
+        <v>64</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (66, '2002-07-12', 4, 64);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"2002-07-14"</f>
+        <v>2002-07-14</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f>D25</f>
+        <v>64</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (67, '2002-07-14', 5, 64);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>"2002-07-14"</f>
+        <v>2002-07-14</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f>D26</f>
+        <v>64</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (68, '2002-07-14', 6, 64);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>'2000'!A61 + 1</f>
+        <v>209</v>
+      </c>
+      <c r="B30" s="3">
+        <f>A12</f>
+        <v>53</v>
+      </c>
+      <c r="C30" s="3">
+        <v>679</v>
+      </c>
+      <c r="D30" s="3">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" ref="G30:G69" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A30 &amp; ", " &amp; B30 &amp; ", " &amp; C30 &amp; ", " &amp; D30 &amp; ", " &amp; E30 &amp; ", " &amp; F30 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (209, 53, 679, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f>A30+1</f>
+        <v>210</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B30</f>
+        <v>53</v>
+      </c>
+      <c r="C31" s="3">
+        <v>679</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (210, 53, 679, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" ref="A32:A37" si="7">A31+1</f>
+        <v>211</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B30</f>
+        <v>53</v>
+      </c>
+      <c r="C32" s="3">
+        <v>687</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (211, 53, 687, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="7"/>
+        <v>212</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B30</f>
+        <v>53</v>
+      </c>
+      <c r="C33" s="3">
+        <v>687</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (212, 53, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="7"/>
+        <v>213</v>
+      </c>
+      <c r="B34">
+        <f>B30+1</f>
+        <v>54</v>
+      </c>
+      <c r="C34" s="5">
+        <v>61</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>3</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (213, 54, 61, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="7"/>
+        <v>214</v>
+      </c>
+      <c r="B35">
+        <f>B34</f>
+        <v>54</v>
+      </c>
+      <c r="C35" s="5">
+        <v>61</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (214, 54, 61, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="7"/>
+        <v>215</v>
+      </c>
+      <c r="B36">
+        <f>B34</f>
+        <v>54</v>
+      </c>
+      <c r="C36" s="5">
+        <v>678</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (215, 54, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="7"/>
+        <v>216</v>
+      </c>
+      <c r="B37">
+        <f>B34</f>
+        <v>54</v>
+      </c>
+      <c r="C37" s="5">
+        <v>678</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (216, 54, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f>A37+1</f>
+        <v>217</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B34+1</f>
+        <v>55</v>
+      </c>
+      <c r="C38" s="3">
+        <v>678</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (217, 55, 678, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f>A38+1</f>
+        <v>218</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B38</f>
+        <v>55</v>
+      </c>
+      <c r="C39" s="3">
+        <v>678</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (218, 55, 678, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f>A39+1</f>
+        <v>219</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B38</f>
+        <v>55</v>
+      </c>
+      <c r="C40" s="3">
+        <v>679</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (219, 55, 679, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f>A40+1</f>
+        <v>220</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B38</f>
+        <v>55</v>
+      </c>
+      <c r="C41" s="3">
+        <v>679</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (220, 55, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f>A41+1</f>
+        <v>221</v>
+      </c>
+      <c r="B42">
+        <f>B38+1</f>
+        <v>56</v>
+      </c>
+      <c r="C42" s="4">
+        <v>61</v>
+      </c>
+      <c r="D42" s="4">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (221, 56, 61, 11, 3, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" ref="A43:A97" si="8">A42+1</f>
+        <v>222</v>
+      </c>
+      <c r="B43">
+        <f>B42</f>
+        <v>56</v>
+      </c>
+      <c r="C43" s="4">
+        <v>61</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (222, 56, 61, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="8"/>
+        <v>223</v>
+      </c>
+      <c r="B44">
+        <f>B42</f>
+        <v>56</v>
+      </c>
+      <c r="C44" s="4">
+        <v>687</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (223, 56, 687, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="B45">
+        <f>B42</f>
+        <v>56</v>
+      </c>
+      <c r="C45" s="4">
+        <v>687</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (224, 56, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="8"/>
+        <v>225</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B42+1</f>
+        <v>57</v>
+      </c>
+      <c r="C46" s="3">
+        <v>678</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (225, 57, 678, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="8"/>
+        <v>226</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B46</f>
+        <v>57</v>
+      </c>
+      <c r="C47" s="3">
+        <v>678</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (226, 57, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="8"/>
+        <v>227</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B46</f>
+        <v>57</v>
+      </c>
+      <c r="C48" s="3">
+        <v>687</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (227, 57, 687, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="8"/>
+        <v>228</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B46</f>
+        <v>57</v>
+      </c>
+      <c r="C49" s="3">
+        <v>687</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (228, 57, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="8"/>
+        <v>229</v>
+      </c>
+      <c r="B50">
+        <f>B46+1</f>
+        <v>58</v>
+      </c>
+      <c r="C50" s="4">
+        <v>61</v>
+      </c>
+      <c r="D50" s="4">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (229, 58, 61, 8, 3, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="B51">
+        <f>B50</f>
+        <v>58</v>
+      </c>
+      <c r="C51" s="4">
+        <v>61</v>
+      </c>
+      <c r="D51" s="4">
+        <v>5</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (230, 58, 61, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="8"/>
+        <v>231</v>
+      </c>
+      <c r="B52">
+        <f>B50</f>
+        <v>58</v>
+      </c>
+      <c r="C52" s="4">
+        <v>679</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (231, 58, 679, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="8"/>
+        <v>232</v>
+      </c>
+      <c r="B53">
+        <f>B50</f>
+        <v>58</v>
+      </c>
+      <c r="C53" s="4">
+        <v>679</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (232, 58, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="8"/>
+        <v>233</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B50+1</f>
+        <v>59</v>
+      </c>
+      <c r="C54" s="3">
+        <v>675</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (233, 59, 675, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="8"/>
+        <v>234</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B54</f>
+        <v>59</v>
+      </c>
+      <c r="C55" s="3">
+        <v>675</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (234, 59, 675, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="8"/>
+        <v>235</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B54</f>
+        <v>59</v>
+      </c>
+      <c r="C56" s="3">
+        <v>677</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (235, 59, 677, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="8"/>
+        <v>236</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B54</f>
+        <v>59</v>
+      </c>
+      <c r="C57" s="3">
+        <v>677</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (236, 59, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="8"/>
+        <v>237</v>
+      </c>
+      <c r="B58">
+        <f>B54+1</f>
+        <v>60</v>
+      </c>
+      <c r="C58" s="4">
+        <v>64</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (237, 60, 64, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="8"/>
+        <v>238</v>
+      </c>
+      <c r="B59">
+        <f>B58</f>
+        <v>60</v>
+      </c>
+      <c r="C59" s="4">
+        <v>64</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (238, 60, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="8"/>
+        <v>239</v>
+      </c>
+      <c r="B60">
+        <f>B58</f>
+        <v>60</v>
+      </c>
+      <c r="C60" s="4">
+        <v>689</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (239, 60, 689, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="B61">
+        <f>B58</f>
+        <v>60</v>
+      </c>
+      <c r="C61" s="4">
+        <v>689</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (240, 60, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="8"/>
+        <v>241</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B58+1</f>
+        <v>61</v>
+      </c>
+      <c r="C62" s="3">
+        <v>689</v>
+      </c>
+      <c r="D62" s="3">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (241, 61, 689, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="8"/>
+        <v>242</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B62</f>
+        <v>61</v>
+      </c>
+      <c r="C63" s="3">
+        <v>689</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (242, 61, 689, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="8"/>
+        <v>243</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B62</f>
+        <v>61</v>
+      </c>
+      <c r="C64" s="3">
+        <v>677</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (243, 61, 677, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="8"/>
+        <v>244</v>
+      </c>
+      <c r="B65" s="3">
+        <f>B62</f>
+        <v>61</v>
+      </c>
+      <c r="C65" s="3">
+        <v>677</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (244, 61, 677, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="8"/>
+        <v>245</v>
+      </c>
+      <c r="B66">
+        <f>B62+1</f>
+        <v>62</v>
+      </c>
+      <c r="C66" s="4">
+        <v>64</v>
+      </c>
+      <c r="D66" s="4">
+        <v>9</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (245, 62, 64, 9, 3, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="8"/>
+        <v>246</v>
+      </c>
+      <c r="B67">
+        <f>B66</f>
+        <v>62</v>
+      </c>
+      <c r="C67" s="4">
+        <v>64</v>
+      </c>
+      <c r="D67" s="4">
+        <v>4</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (246, 62, 64, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="8"/>
+        <v>247</v>
+      </c>
+      <c r="B68">
+        <f>B66</f>
+        <v>62</v>
+      </c>
+      <c r="C68" s="4">
+        <v>675</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (247, 62, 675, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="8"/>
+        <v>248</v>
+      </c>
+      <c r="B69">
+        <f>B66</f>
+        <v>62</v>
+      </c>
+      <c r="C69" s="4">
+        <v>675</v>
+      </c>
+      <c r="D69" s="4">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (248, 62, 675, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B66+1</f>
+        <v>63</v>
+      </c>
+      <c r="C70" s="3">
+        <v>689</v>
+      </c>
+      <c r="D70" s="3">
+        <v>3</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" ref="G70:G97" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A70 &amp; ", " &amp; B70 &amp; ", " &amp; C70 &amp; ", " &amp; D70 &amp; ", " &amp; E70 &amp; ", " &amp; F70 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (249, 63, 689, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B70</f>
+        <v>63</v>
+      </c>
+      <c r="C71" s="3">
+        <v>689</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (250, 63, 689, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="8"/>
+        <v>251</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B70</f>
+        <v>63</v>
+      </c>
+      <c r="C72" s="3">
+        <v>675</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 63, 675, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f t="shared" si="8"/>
+        <v>252</v>
+      </c>
+      <c r="B73" s="3">
+        <f>B70</f>
+        <v>63</v>
+      </c>
+      <c r="C73" s="3">
+        <v>675</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 63, 675, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="8"/>
+        <v>253</v>
+      </c>
+      <c r="B74">
+        <f>B70+1</f>
+        <v>64</v>
+      </c>
+      <c r="C74" s="4">
+        <v>64</v>
+      </c>
+      <c r="D74" s="4">
+        <v>6</v>
+      </c>
+      <c r="E74" s="5">
+        <v>3</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 64, 64, 6, 3, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="8"/>
+        <v>254</v>
+      </c>
+      <c r="B75">
+        <f>B74</f>
+        <v>64</v>
+      </c>
+      <c r="C75" s="4">
+        <v>64</v>
+      </c>
+      <c r="D75" s="4">
+        <v>3</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 64, 64, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="B76">
+        <f>B74</f>
+        <v>64</v>
+      </c>
+      <c r="C76" s="4">
+        <v>677</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 64, 677, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f t="shared" si="8"/>
+        <v>256</v>
+      </c>
+      <c r="B77">
+        <f>B74</f>
+        <v>64</v>
+      </c>
+      <c r="C77" s="4">
+        <v>677</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 64, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="8"/>
+        <v>257</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B74+1</f>
+        <v>65</v>
+      </c>
+      <c r="C78" s="3">
+        <v>61</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 65, 61, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="8"/>
+        <v>258</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B78</f>
+        <v>65</v>
+      </c>
+      <c r="C79" s="3">
+        <v>61</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 65, 61, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="8"/>
+        <v>259</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B78</f>
+        <v>65</v>
+      </c>
+      <c r="C80" s="3">
+        <v>689</v>
+      </c>
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 65, 689, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="8"/>
+        <v>260</v>
+      </c>
+      <c r="B81" s="3">
+        <f>B78</f>
+        <v>65</v>
+      </c>
+      <c r="C81" s="3">
+        <v>689</v>
+      </c>
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 65, 689, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f t="shared" si="8"/>
+        <v>261</v>
+      </c>
+      <c r="B82" s="3">
+        <f>B79</f>
+        <v>65</v>
+      </c>
+      <c r="C82" s="3">
+        <v>61</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2</v>
+      </c>
+      <c r="E82" s="3">
+        <v>3</v>
+      </c>
+      <c r="F82" s="3">
+        <v>4</v>
+      </c>
+      <c r="G82" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 65, 61, 2, 3, 4);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="8"/>
+        <v>262</v>
+      </c>
+      <c r="B83" s="3">
+        <f>B80</f>
+        <v>65</v>
+      </c>
+      <c r="C83" s="3">
+        <v>61</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 65, 61, 2, 0, 3);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="8"/>
+        <v>263</v>
+      </c>
+      <c r="B84" s="3">
+        <f>B81</f>
+        <v>65</v>
+      </c>
+      <c r="C84" s="3">
+        <v>689</v>
+      </c>
+      <c r="D84" s="3">
+        <v>1</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>4</v>
+      </c>
+      <c r="G84" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 65, 689, 1, 0, 4);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B82</f>
+        <v>65</v>
+      </c>
+      <c r="C85" s="3">
+        <v>689</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>3</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 65, 689, 1, 0, 3);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <f t="shared" si="8"/>
+        <v>265</v>
+      </c>
+      <c r="B86">
+        <f>B78+1</f>
+        <v>66</v>
+      </c>
+      <c r="C86" s="4">
+        <v>64</v>
+      </c>
+      <c r="D86" s="4">
+        <v>3</v>
+      </c>
+      <c r="E86" s="5">
+        <v>3</v>
+      </c>
+      <c r="F86" s="4">
+        <v>2</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 66, 64, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <f t="shared" si="8"/>
+        <v>266</v>
+      </c>
+      <c r="B87">
+        <f>B86</f>
+        <v>66</v>
+      </c>
+      <c r="C87" s="4">
+        <v>64</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5">
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 66, 64, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <f t="shared" si="8"/>
+        <v>267</v>
+      </c>
+      <c r="B88">
+        <f>B86</f>
+        <v>66</v>
+      </c>
+      <c r="C88" s="4">
+        <v>678</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 66, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <f t="shared" si="8"/>
+        <v>268</v>
+      </c>
+      <c r="B89">
+        <f>B86</f>
+        <v>66</v>
+      </c>
+      <c r="C89" s="4">
+        <v>678</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+      <c r="E89" s="5">
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 66, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f t="shared" si="8"/>
+        <v>269</v>
+      </c>
+      <c r="B90" s="3">
+        <f>B86+1</f>
+        <v>67</v>
+      </c>
+      <c r="C90" s="3">
+        <v>689</v>
+      </c>
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3">
+        <v>3</v>
+      </c>
+      <c r="F90" s="3">
+        <v>2</v>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 67, 689, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="B91" s="3">
+        <f>B90</f>
+        <v>67</v>
+      </c>
+      <c r="C91" s="3">
+        <v>689</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>1</v>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 67, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f t="shared" si="8"/>
+        <v>271</v>
+      </c>
+      <c r="B92" s="3">
+        <f>B90</f>
+        <v>67</v>
+      </c>
+      <c r="C92" s="3">
+        <v>678</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>2</v>
+      </c>
+      <c r="G92" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 67, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="8"/>
+        <v>272</v>
+      </c>
+      <c r="B93" s="3">
+        <f>B90</f>
+        <v>67</v>
+      </c>
+      <c r="C93" s="3">
+        <v>678</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0</v>
+      </c>
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 67, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <f t="shared" si="8"/>
+        <v>273</v>
+      </c>
+      <c r="B94">
+        <f>B90+1</f>
+        <v>68</v>
+      </c>
+      <c r="C94" s="4">
+        <v>64</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5">
+        <v>3</v>
+      </c>
+      <c r="F94" s="4">
+        <v>2</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 68, 64, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <f t="shared" si="8"/>
+        <v>274</v>
+      </c>
+      <c r="B95">
+        <f>B94</f>
+        <v>68</v>
+      </c>
+      <c r="C95" s="4">
+        <v>64</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
+      <c r="E95" s="5">
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 68, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <f t="shared" si="8"/>
+        <v>275</v>
+      </c>
+      <c r="B96">
+        <f>B94</f>
+        <v>68</v>
+      </c>
+      <c r="C96" s="4">
+        <v>61</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <v>2</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 68, 61, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <f t="shared" si="8"/>
+        <v>276</v>
+      </c>
+      <c r="B97">
+        <f>B94</f>
+        <v>68</v>
+      </c>
+      <c r="C97" s="4">
+        <v>61</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5">
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 68, 61, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Scripts/ofcnationscup/ofcnationscup.xlsx
+++ b/Scripts/ofcnationscup/ofcnationscup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="472" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="472" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1973" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="1998" sheetId="4" r:id="rId4"/>
     <sheet name="2000" sheetId="5" r:id="rId5"/>
     <sheet name="2002" sheetId="6" r:id="rId6"/>
+    <sheet name="2004" sheetId="7" r:id="rId7"/>
+    <sheet name="2008" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -7683,7 +7685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10021,4 +10023,3743 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>'2002'!A27 + 1</f>
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"2004-05-29"</f>
+        <v>2004-05-29</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>61</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G18" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (69, '2004-05-29', 2, 61);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"2004-05-29"</f>
+        <v>2004-05-29</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>61</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (70, '2004-05-29', 2, 61);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A18" si="1">A3+1</f>
+        <v>71</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"2004-05-29"</f>
+        <v>2004-05-29</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D18" si="2">D3</f>
+        <v>61</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (71, '2004-05-29', 2, 61);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"2004-05-31"</f>
+        <v>2004-05-31</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (72, '2004-05-31', 2, 61);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"2004-05-31"</f>
+        <v>2004-05-31</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (73, '2004-05-31', 2, 61);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"2004-05-31"</f>
+        <v>2004-05-31</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (74, '2004-05-31', 2, 61);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"2004-06-02"</f>
+        <v>2004-06-02</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (75, '2004-06-02', 2, 61);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"2004-06-02"</f>
+        <v>2004-06-02</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (76, '2004-06-02', 2, 61);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"2004-06-02"</f>
+        <v>2004-06-02</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (77, '2004-06-02', 2, 61);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2004-06-04"</f>
+        <v>2004-06-04</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (78, '2004-06-04', 2, 61);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2004-06-04"</f>
+        <v>2004-06-04</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (79, '2004-06-04', 2, 61);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2004-06-04"</f>
+        <v>2004-06-04</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (80, '2004-06-04', 2, 61);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2004-06-06"</f>
+        <v>2004-06-06</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (81, '2004-06-06', 2, 61);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2004-06-06"</f>
+        <v>2004-06-06</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (82, '2004-06-06', 2, 61);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2004-06-06"</f>
+        <v>2004-06-06</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (83, '2004-06-06', 2, 61);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2004-10-12"</f>
+        <v>2004-10-12</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>677</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (84, '2004-10-12', 6, 677);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2004-10-12"</f>
+        <v>2004-10-12</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>61</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (85, '2004-10-12', 6, 61);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A20 &amp; ", " &amp; B20 &amp; ", " &amp; C20 &amp; ", " &amp; D20 &amp; ", " &amp; E20 &amp; ", " &amp; F20 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f>'2002'!A97 + 1</f>
+        <v>277</v>
+      </c>
+      <c r="B21" s="3">
+        <f>A2</f>
+        <v>69</v>
+      </c>
+      <c r="C21" s="3">
+        <v>678</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f t="shared" ref="G21:G44" si="3">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A21 &amp; ", " &amp; B21 &amp; ", " &amp; C21 &amp; ", " &amp; D21 &amp; ", " &amp; E21 &amp; ", " &amp; F21 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 69, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f>A21+1</f>
+        <v>278</v>
+      </c>
+      <c r="B22" s="3">
+        <f>B21</f>
+        <v>69</v>
+      </c>
+      <c r="C22" s="3">
+        <v>678</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 69, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" ref="A23:A28" si="4">A22+1</f>
+        <v>279</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B21</f>
+        <v>69</v>
+      </c>
+      <c r="C23" s="3">
+        <v>677</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 69, 677, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B21</f>
+        <v>69</v>
+      </c>
+      <c r="C24" s="3">
+        <v>677</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 69, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>281</v>
+      </c>
+      <c r="B25">
+        <f>B21+1</f>
+        <v>70</v>
+      </c>
+      <c r="C25" s="4">
+        <v>689</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 70, 689, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>282</v>
+      </c>
+      <c r="B26">
+        <f>B25</f>
+        <v>70</v>
+      </c>
+      <c r="C26" s="4">
+        <v>689</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 70, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>283</v>
+      </c>
+      <c r="B27">
+        <f>B25</f>
+        <v>70</v>
+      </c>
+      <c r="C27" s="4">
+        <v>679</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 70, 679, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>284</v>
+      </c>
+      <c r="B28">
+        <f>B25</f>
+        <v>70</v>
+      </c>
+      <c r="C28" s="4">
+        <v>679</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 70, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>A28+1</f>
+        <v>285</v>
+      </c>
+      <c r="B29" s="3">
+        <f>B25+1</f>
+        <v>71</v>
+      </c>
+      <c r="C29" s="3">
+        <v>61</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 71, 61, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>A29+1</f>
+        <v>286</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B29</f>
+        <v>71</v>
+      </c>
+      <c r="C30" s="3">
+        <v>61</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 71, 61, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f>A30+1</f>
+        <v>287</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B29</f>
+        <v>71</v>
+      </c>
+      <c r="C31" s="3">
+        <v>64</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 71, 64, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f>A31+1</f>
+        <v>288</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B29</f>
+        <v>71</v>
+      </c>
+      <c r="C32" s="3">
+        <v>64</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 71, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <f>A32+1</f>
+        <v>289</v>
+      </c>
+      <c r="B33">
+        <f>B29+1</f>
+        <v>72</v>
+      </c>
+      <c r="C33" s="4">
+        <v>64</v>
+      </c>
+      <c r="D33" s="4">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 72, 64, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" ref="A34:A88" si="5">A33+1</f>
+        <v>290</v>
+      </c>
+      <c r="B34">
+        <f>B33</f>
+        <v>72</v>
+      </c>
+      <c r="C34" s="4">
+        <v>64</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 72, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="B35">
+        <f>B33</f>
+        <v>72</v>
+      </c>
+      <c r="C35" s="4">
+        <v>677</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 72, 677, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="5"/>
+        <v>292</v>
+      </c>
+      <c r="B36">
+        <f>B33</f>
+        <v>72</v>
+      </c>
+      <c r="C36" s="4">
+        <v>677</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 72, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="5"/>
+        <v>293</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B33+1</f>
+        <v>73</v>
+      </c>
+      <c r="C37" s="3">
+        <v>61</v>
+      </c>
+      <c r="D37" s="3">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 73, 61, 9, 3, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="5"/>
+        <v>294</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B37</f>
+        <v>73</v>
+      </c>
+      <c r="C38" s="3">
+        <v>61</v>
+      </c>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 73, 61, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="5"/>
+        <v>295</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B37</f>
+        <v>73</v>
+      </c>
+      <c r="C39" s="3">
+        <v>689</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 73, 689, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B37</f>
+        <v>73</v>
+      </c>
+      <c r="C40" s="3">
+        <v>689</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 73, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f t="shared" si="5"/>
+        <v>297</v>
+      </c>
+      <c r="B41">
+        <f>B37+1</f>
+        <v>74</v>
+      </c>
+      <c r="C41" s="4">
+        <v>679</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 74, 679, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="5"/>
+        <v>298</v>
+      </c>
+      <c r="B42">
+        <f>B41</f>
+        <v>74</v>
+      </c>
+      <c r="C42" s="4">
+        <v>679</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 74, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="5"/>
+        <v>299</v>
+      </c>
+      <c r="B43">
+        <f>B41</f>
+        <v>74</v>
+      </c>
+      <c r="C43" s="4">
+        <v>678</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 74, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="B44">
+        <f>B41</f>
+        <v>74</v>
+      </c>
+      <c r="C44" s="4">
+        <v>678</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 74, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="5"/>
+        <v>301</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B41+1</f>
+        <v>75</v>
+      </c>
+      <c r="C45" s="3">
+        <v>61</v>
+      </c>
+      <c r="D45" s="3">
+        <v>6</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" ref="G45:G88" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A45 &amp; ", " &amp; B45 &amp; ", " &amp; C45 &amp; ", " &amp; D45 &amp; ", " &amp; E45 &amp; ", " &amp; F45 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 75, 61, 6, 3, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="5"/>
+        <v>302</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B45</f>
+        <v>75</v>
+      </c>
+      <c r="C46" s="3">
+        <v>61</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 75, 61, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="5"/>
+        <v>303</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B45</f>
+        <v>75</v>
+      </c>
+      <c r="C47" s="3">
+        <v>679</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 75, 679, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="5"/>
+        <v>304</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B45</f>
+        <v>75</v>
+      </c>
+      <c r="C48" s="3">
+        <v>679</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 75, 679, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="5"/>
+        <v>305</v>
+      </c>
+      <c r="B49">
+        <f>B45+1</f>
+        <v>76</v>
+      </c>
+      <c r="C49" s="4">
+        <v>689</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 76, 689, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="5"/>
+        <v>306</v>
+      </c>
+      <c r="B50">
+        <f>B49</f>
+        <v>76</v>
+      </c>
+      <c r="C50" s="4">
+        <v>689</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 76, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="5"/>
+        <v>307</v>
+      </c>
+      <c r="B51">
+        <f>B49</f>
+        <v>76</v>
+      </c>
+      <c r="C51" s="4">
+        <v>677</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 76, 677, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="5"/>
+        <v>308</v>
+      </c>
+      <c r="B52">
+        <f>B49</f>
+        <v>76</v>
+      </c>
+      <c r="C52" s="4">
+        <v>677</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 76, 677, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="5"/>
+        <v>309</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B49+1</f>
+        <v>77</v>
+      </c>
+      <c r="C53" s="3">
+        <v>678</v>
+      </c>
+      <c r="D53" s="3">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 77, 678, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="5"/>
+        <v>310</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B53</f>
+        <v>77</v>
+      </c>
+      <c r="C54" s="3">
+        <v>678</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 77, 678, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="5"/>
+        <v>311</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B53</f>
+        <v>77</v>
+      </c>
+      <c r="C55" s="3">
+        <v>64</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 77, 64, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="5"/>
+        <v>312</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B53</f>
+        <v>77</v>
+      </c>
+      <c r="C56" s="3">
+        <v>64</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 77, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="5"/>
+        <v>313</v>
+      </c>
+      <c r="B57">
+        <f>B53+1</f>
+        <v>78</v>
+      </c>
+      <c r="C57" s="4">
+        <v>61</v>
+      </c>
+      <c r="D57" s="4">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 78, 61, 10, 3, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="5"/>
+        <v>314</v>
+      </c>
+      <c r="B58">
+        <f>B57</f>
+        <v>78</v>
+      </c>
+      <c r="C58" s="4">
+        <v>61</v>
+      </c>
+      <c r="D58" s="4">
+        <v>5</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 78, 61, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+      <c r="B59">
+        <f>B57</f>
+        <v>78</v>
+      </c>
+      <c r="C59" s="4">
+        <v>689</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (315, 78, 689, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="5"/>
+        <v>316</v>
+      </c>
+      <c r="B60">
+        <f>B57</f>
+        <v>78</v>
+      </c>
+      <c r="C60" s="4">
+        <v>689</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (316, 78, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="5"/>
+        <v>317</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B57+1</f>
+        <v>79</v>
+      </c>
+      <c r="C61" s="3">
+        <v>679</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (317, 79, 679, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="5"/>
+        <v>318</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B61</f>
+        <v>79</v>
+      </c>
+      <c r="C62" s="3">
+        <v>679</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (318, 79, 679, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="5"/>
+        <v>319</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B61</f>
+        <v>79</v>
+      </c>
+      <c r="C63" s="3">
+        <v>677</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 79, 677, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B61</f>
+        <v>79</v>
+      </c>
+      <c r="C64" s="3">
+        <v>677</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 79, 677, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="5"/>
+        <v>321</v>
+      </c>
+      <c r="B65">
+        <f>B61+1</f>
+        <v>80</v>
+      </c>
+      <c r="C65" s="4">
+        <v>678</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 80, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="5"/>
+        <v>322</v>
+      </c>
+      <c r="B66">
+        <f>B65</f>
+        <v>80</v>
+      </c>
+      <c r="C66" s="4">
+        <v>678</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 80, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="5"/>
+        <v>323</v>
+      </c>
+      <c r="B67">
+        <f>B65</f>
+        <v>80</v>
+      </c>
+      <c r="C67" s="4">
+        <v>61</v>
+      </c>
+      <c r="D67" s="4">
+        <v>3</v>
+      </c>
+      <c r="E67" s="5">
+        <v>3</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (323, 80, 61, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="5"/>
+        <v>324</v>
+      </c>
+      <c r="B68">
+        <f>B65</f>
+        <v>80</v>
+      </c>
+      <c r="C68" s="4">
+        <v>61</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (324, 80, 61, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="5"/>
+        <v>325</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B65+1</f>
+        <v>81</v>
+      </c>
+      <c r="C69" s="3">
+        <v>689</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (325, 81, 689, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="5"/>
+        <v>326</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B69</f>
+        <v>81</v>
+      </c>
+      <c r="C70" s="3">
+        <v>689</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (326, 81, 689, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="5"/>
+        <v>327</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B69</f>
+        <v>81</v>
+      </c>
+      <c r="C71" s="3">
+        <v>678</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 81, 678, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="5"/>
+        <v>328</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B69</f>
+        <v>81</v>
+      </c>
+      <c r="C72" s="3">
+        <v>678</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 81, 678, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="5"/>
+        <v>329</v>
+      </c>
+      <c r="B73">
+        <f>B69+1</f>
+        <v>82</v>
+      </c>
+      <c r="C73" s="4">
+        <v>679</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 82, 679, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="B74">
+        <f>B73</f>
+        <v>82</v>
+      </c>
+      <c r="C74" s="4">
+        <v>679</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 82, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="5"/>
+        <v>331</v>
+      </c>
+      <c r="B75">
+        <f>B73</f>
+        <v>82</v>
+      </c>
+      <c r="C75" s="4">
+        <v>64</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" s="5">
+        <v>3</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (331, 82, 64, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="5"/>
+        <v>332</v>
+      </c>
+      <c r="B76">
+        <f>B73</f>
+        <v>82</v>
+      </c>
+      <c r="C76" s="4">
+        <v>64</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (332, 82, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="5"/>
+        <v>333</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B73+1</f>
+        <v>83</v>
+      </c>
+      <c r="C77" s="3">
+        <v>677</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (333, 83, 677, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="5"/>
+        <v>334</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B77</f>
+        <v>83</v>
+      </c>
+      <c r="C78" s="3">
+        <v>677</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (334, 83, 677, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B77</f>
+        <v>83</v>
+      </c>
+      <c r="C79" s="3">
+        <v>61</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 83, 61, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B77</f>
+        <v>83</v>
+      </c>
+      <c r="C80" s="3">
+        <v>61</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 83, 61, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="5"/>
+        <v>337</v>
+      </c>
+      <c r="B81">
+        <f>B77+1</f>
+        <v>84</v>
+      </c>
+      <c r="C81" s="4">
+        <v>677</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 84, 677, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="5"/>
+        <v>338</v>
+      </c>
+      <c r="B82">
+        <f>B81</f>
+        <v>84</v>
+      </c>
+      <c r="C82" s="4">
+        <v>677</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 84, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="5"/>
+        <v>339</v>
+      </c>
+      <c r="B83">
+        <f>B81</f>
+        <v>84</v>
+      </c>
+      <c r="C83" s="4">
+        <v>61</v>
+      </c>
+      <c r="D83" s="4">
+        <v>5</v>
+      </c>
+      <c r="E83" s="5">
+        <v>3</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 84, 61, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="B84">
+        <f>B81</f>
+        <v>84</v>
+      </c>
+      <c r="C84" s="4">
+        <v>61</v>
+      </c>
+      <c r="D84" s="4">
+        <v>4</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 84, 61, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="5"/>
+        <v>341</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B81+1</f>
+        <v>85</v>
+      </c>
+      <c r="C85" s="3">
+        <v>61</v>
+      </c>
+      <c r="D85" s="3">
+        <v>6</v>
+      </c>
+      <c r="E85" s="3">
+        <v>3</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 85, 61, 6, 3, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="5"/>
+        <v>342</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B85</f>
+        <v>85</v>
+      </c>
+      <c r="C86" s="3">
+        <v>61</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 85, 61, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="5"/>
+        <v>343</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B85</f>
+        <v>85</v>
+      </c>
+      <c r="C87" s="3">
+        <v>677</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 85, 677, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B85</f>
+        <v>85</v>
+      </c>
+      <c r="C88" s="3">
+        <v>677</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 85, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp; C1 &amp; ", " &amp; D1 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>'2004'!A18 + 1</f>
+        <v>86</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"2007-10-17"</f>
+        <v>2007-10-17</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>679</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G13" si="0">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", " &amp; D2 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (86, '2007-10-17', 2, 679);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>87</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"2007-11-17"</f>
+        <v>2007-11-17</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>678</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (87, '2007-11-17', 2, 678);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A13" si="1">A3+1</f>
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"2007-11-17"</f>
+        <v>2007-11-17</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>679</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (88, '2007-11-17', 2, 679);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"2007-11-21"</f>
+        <v>2007-11-21</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>64</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (89, '2007-11-21', 2, 64);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"2007-11-21"</f>
+        <v>2007-11-21</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>687</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (90, '2007-11-21', 2, 687);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"2008-07-14"</f>
+        <v>2008-07-14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>678</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (91, '2008-07-14', 2, 678);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"2008-07-21"</f>
+        <v>2008-07-21</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>687</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (92, '2008-07-21', 2, 687);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"2008-09-06"</f>
+        <v>2008-09-06</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>679</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (93, '2008-09-06', 2, 679);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"2008-09-06"</f>
+        <v>2008-09-06</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>687</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (94, '2008-09-06', 2, 687);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"2008-09-10"</f>
+        <v>2008-09-10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>678</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (95, '2008-09-10', 2, 678);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2008-09-10"</f>
+        <v>2008-09-10</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (96, '2008-09-10', 2, 64);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2008-11-19"</f>
+        <v>2008-11-19</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>679</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (97, '2008-11-19', 2, 679);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A15 &amp; ", " &amp; B15 &amp; ", " &amp; C15 &amp; ", " &amp; D15 &amp; ", " &amp; E15 &amp; ", " &amp; F15 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f>'2004'!A88 + 1</f>
+        <v>345</v>
+      </c>
+      <c r="B16" s="3">
+        <f>A2</f>
+        <v>86</v>
+      </c>
+      <c r="C16" s="3">
+        <v>679</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="str">
+        <f t="shared" ref="G16:G63" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A16 &amp; ", " &amp; B16 &amp; ", " &amp; C16 &amp; ", " &amp; D16 &amp; ", " &amp; E16 &amp; ", " &amp; F16 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 86, 679, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f>A16+1</f>
+        <v>346</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B16</f>
+        <v>86</v>
+      </c>
+      <c r="C17" s="3">
+        <v>679</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 86, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" ref="A18:A23" si="3">A17+1</f>
+        <v>347</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B16</f>
+        <v>86</v>
+      </c>
+      <c r="C18" s="3">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 86, 64, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="3"/>
+        <v>348</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B16</f>
+        <v>86</v>
+      </c>
+      <c r="C19" s="3">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 86, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="B20">
+        <f>B16+1</f>
+        <v>87</v>
+      </c>
+      <c r="C20" s="4">
+        <v>678</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 87, 678, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="B21">
+        <f>B20</f>
+        <v>87</v>
+      </c>
+      <c r="C21" s="4">
+        <v>678</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 87, 678, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>351</v>
+      </c>
+      <c r="B22">
+        <f>B20</f>
+        <v>87</v>
+      </c>
+      <c r="C22" s="4">
+        <v>64</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 87, 64, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>352</v>
+      </c>
+      <c r="B23">
+        <f>B20</f>
+        <v>87</v>
+      </c>
+      <c r="C23" s="4">
+        <v>64</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 87, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f>A23+1</f>
+        <v>353</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B20+1</f>
+        <v>88</v>
+      </c>
+      <c r="C24" s="3">
+        <v>679</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2</v>
+      </c>
+      <c r="G24" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 88, 679, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f>A24+1</f>
+        <v>354</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B24</f>
+        <v>88</v>
+      </c>
+      <c r="C25" s="3">
+        <v>679</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 88, 679, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f>A25+1</f>
+        <v>355</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B24</f>
+        <v>88</v>
+      </c>
+      <c r="C26" s="3">
+        <v>687</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (355, 88, 687, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f>A26+1</f>
+        <v>356</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B24</f>
+        <v>88</v>
+      </c>
+      <c r="C27" s="3">
+        <v>687</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (356, 88, 687, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <f>A27+1</f>
+        <v>357</v>
+      </c>
+      <c r="B28">
+        <f>B24+1</f>
+        <v>89</v>
+      </c>
+      <c r="C28" s="4">
+        <v>64</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4</v>
+      </c>
+      <c r="E28" s="5">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (357, 89, 64, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <f t="shared" ref="A29:A63" si="4">A28+1</f>
+        <v>358</v>
+      </c>
+      <c r="B29">
+        <f>B28</f>
+        <v>89</v>
+      </c>
+      <c r="C29" s="4">
+        <v>64</v>
+      </c>
+      <c r="D29" s="4">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (358, 89, 64, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="4"/>
+        <v>359</v>
+      </c>
+      <c r="B30">
+        <f>B28</f>
+        <v>89</v>
+      </c>
+      <c r="C30" s="4">
+        <v>678</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (359, 89, 678, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="B31">
+        <f>B28</f>
+        <v>89</v>
+      </c>
+      <c r="C31" s="4">
+        <v>678</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (360, 89, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="4"/>
+        <v>361</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B28+1</f>
+        <v>90</v>
+      </c>
+      <c r="C32" s="3">
+        <v>687</v>
+      </c>
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (361, 90, 687, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="4"/>
+        <v>362</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B32</f>
+        <v>90</v>
+      </c>
+      <c r="C33" s="3">
+        <v>687</v>
+      </c>
+      <c r="D33" s="3">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (362, 90, 687, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="4"/>
+        <v>363</v>
+      </c>
+      <c r="B34" s="3">
+        <f>B32</f>
+        <v>90</v>
+      </c>
+      <c r="C34" s="3">
+        <v>679</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (363, 90, 679, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="4"/>
+        <v>364</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B32</f>
+        <v>90</v>
+      </c>
+      <c r="C35" s="3">
+        <v>679</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (364, 90, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
+      <c r="B36">
+        <f>B32+1</f>
+        <v>91</v>
+      </c>
+      <c r="C36" s="4">
+        <v>678</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (365, 91, 678, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <f t="shared" si="4"/>
+        <v>366</v>
+      </c>
+      <c r="B37">
+        <f>B36</f>
+        <v>91</v>
+      </c>
+      <c r="C37" s="4">
+        <v>678</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (366, 91, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="4"/>
+        <v>367</v>
+      </c>
+      <c r="B38">
+        <f>B36</f>
+        <v>91</v>
+      </c>
+      <c r="C38" s="4">
+        <v>687</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (367, 91, 687, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <f t="shared" si="4"/>
+        <v>368</v>
+      </c>
+      <c r="B39">
+        <f>B36</f>
+        <v>91</v>
+      </c>
+      <c r="C39" s="4">
+        <v>687</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (368, 91, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="4"/>
+        <v>369</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B36+1</f>
+        <v>92</v>
+      </c>
+      <c r="C40" s="3">
+        <v>687</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (369, 92, 687, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B40</f>
+        <v>92</v>
+      </c>
+      <c r="C41" s="3">
+        <v>687</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (370, 92, 687, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="4"/>
+        <v>371</v>
+      </c>
+      <c r="B42" s="3">
+        <f>B40</f>
+        <v>92</v>
+      </c>
+      <c r="C42" s="3">
+        <v>678</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (371, 92, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B40</f>
+        <v>92</v>
+      </c>
+      <c r="C43" s="3">
+        <v>678</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (372, 92, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="4"/>
+        <v>373</v>
+      </c>
+      <c r="B44">
+        <f>B40+1</f>
+        <v>93</v>
+      </c>
+      <c r="C44" s="4">
+        <v>679</v>
+      </c>
+      <c r="D44" s="4">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (373, 93, 679, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="4"/>
+        <v>374</v>
+      </c>
+      <c r="B45">
+        <f>B44</f>
+        <v>93</v>
+      </c>
+      <c r="C45" s="4">
+        <v>679</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (374, 93, 679, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
+      <c r="B46">
+        <f>B44</f>
+        <v>93</v>
+      </c>
+      <c r="C46" s="4">
+        <v>678</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (375, 93, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <f t="shared" si="4"/>
+        <v>376</v>
+      </c>
+      <c r="B47">
+        <f>B44</f>
+        <v>93</v>
+      </c>
+      <c r="C47" s="4">
+        <v>678</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (376, 93, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="4"/>
+        <v>377</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B44+1</f>
+        <v>94</v>
+      </c>
+      <c r="C48" s="3">
+        <v>687</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (377, 94, 687, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="4"/>
+        <v>378</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B48</f>
+        <v>94</v>
+      </c>
+      <c r="C49" s="3">
+        <v>687</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (378, 94, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="4"/>
+        <v>379</v>
+      </c>
+      <c r="B50" s="3">
+        <f>B48</f>
+        <v>94</v>
+      </c>
+      <c r="C50" s="3">
+        <v>64</v>
+      </c>
+      <c r="D50" s="3">
+        <v>3</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (379, 94, 64, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="B51" s="3">
+        <f>B48</f>
+        <v>94</v>
+      </c>
+      <c r="C51" s="3">
+        <v>64</v>
+      </c>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (380, 94, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="4"/>
+        <v>381</v>
+      </c>
+      <c r="B52">
+        <f>B48+1</f>
+        <v>95</v>
+      </c>
+      <c r="C52" s="4">
+        <v>678</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (381, 95, 678, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="4"/>
+        <v>382</v>
+      </c>
+      <c r="B53">
+        <f>B52</f>
+        <v>95</v>
+      </c>
+      <c r="C53" s="4">
+        <v>678</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (382, 95, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="4"/>
+        <v>383</v>
+      </c>
+      <c r="B54">
+        <f>B52</f>
+        <v>95</v>
+      </c>
+      <c r="C54" s="4">
+        <v>679</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 95, 679, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="4"/>
+        <v>384</v>
+      </c>
+      <c r="B55">
+        <f>B52</f>
+        <v>95</v>
+      </c>
+      <c r="C55" s="4">
+        <v>679</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (384, 95, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B52+1</f>
+        <v>96</v>
+      </c>
+      <c r="C56" s="3">
+        <v>64</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 96, 64, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="4"/>
+        <v>386</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B56</f>
+        <v>96</v>
+      </c>
+      <c r="C57" s="3">
+        <v>64</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (386, 96, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="4"/>
+        <v>387</v>
+      </c>
+      <c r="B58" s="3">
+        <f>B56</f>
+        <v>96</v>
+      </c>
+      <c r="C58" s="3">
+        <v>687</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2</v>
+      </c>
+      <c r="G58" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (387, 96, 687, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="4"/>
+        <v>388</v>
+      </c>
+      <c r="B59" s="3">
+        <f>B56</f>
+        <v>96</v>
+      </c>
+      <c r="C59" s="3">
+        <v>687</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (388, 96, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="4"/>
+        <v>389</v>
+      </c>
+      <c r="B60">
+        <f>B56+1</f>
+        <v>97</v>
+      </c>
+      <c r="C60" s="4">
+        <v>64</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (389, 97, 64, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="B61">
+        <f>B60</f>
+        <v>97</v>
+      </c>
+      <c r="C61" s="4">
+        <v>64</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (390, 97, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="4"/>
+        <v>391</v>
+      </c>
+      <c r="B62">
+        <f>B60</f>
+        <v>97</v>
+      </c>
+      <c r="C62" s="4">
+        <v>679</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4">
+        <v>2</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (391, 97, 679, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <f t="shared" si="4"/>
+        <v>392</v>
+      </c>
+      <c r="B63">
+        <f>B60</f>
+        <v>97</v>
+      </c>
+      <c r="C63" s="4">
+        <v>679</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (392, 97, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Scripts/ofcnationscup/ofcnationscup.xlsx
+++ b/Scripts/ofcnationscup/ofcnationscup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="472" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="472" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1973" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="2002" sheetId="6" r:id="rId6"/>
     <sheet name="2004" sheetId="7" r:id="rId7"/>
     <sheet name="2008" sheetId="8" r:id="rId8"/>
+    <sheet name="2012" sheetId="9" r:id="rId9"/>
+    <sheet name="2016" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -1983,6 +1985,2277 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>'2012'!A9 + 1</f>
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>2016</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>675</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (37, 2016, 'A', 675);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A9" si="1">A2+1</f>
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="2">B2</f>
+        <v>2016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>687</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (38, 2016, 'A', 687);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>689</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (39, 2016, 'A', 689);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>685</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (40, 2016, 'A', 685);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>64</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (41, 2016, 'B', 64);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>679</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (42, 2016, 'B', 679);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>678</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (43, 2016, 'B', 678);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>677</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (44, 2016, 'B', 677);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f>'2012'!A27 + 1</f>
+        <v>114</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2016-05-29"</f>
+        <v>2016-05-29</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>675</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G26" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (114, '2016-05-29', 2, 675);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>115</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2016-05-29"</f>
+        <v>2016-05-29</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>675</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (115, '2016-05-29', 2, 675);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A26" si="4">A13+1</f>
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2016-06-01"</f>
+        <v>2016-06-01</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f>D13</f>
+        <v>675</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (116, '2016-06-01', 2, 675);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2016-06-01"</f>
+        <v>2016-06-01</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>D14</f>
+        <v>675</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (117, '2016-06-01', 2, 675);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2016-06-05"</f>
+        <v>2016-06-05</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>D15</f>
+        <v>675</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (118, '2016-06-05', 2, 675);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2016-06-05"</f>
+        <v>2016-06-05</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>D16</f>
+        <v>675</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (119, '2016-06-05', 2, 675);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2016-05-28"</f>
+        <v>2016-05-28</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D23" si="5">D17</f>
+        <v>675</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (120, '2016-05-28', 2, 675);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2016-05-28"</f>
+        <v>2016-05-28</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>675</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (121, '2016-05-28', 2, 675);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2016-05-31"</f>
+        <v>2016-05-31</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>675</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (122, '2016-05-31', 2, 675);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2016-05-31"</f>
+        <v>2016-05-31</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>675</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (123, '2016-05-31', 2, 675);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2016-06-04"</f>
+        <v>2016-06-04</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>675</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (124, '2016-06-04', 2, 675);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2016-06-04"</f>
+        <v>2016-06-04</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>675</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (125, '2016-06-04', 2, 675);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2016-06-08"</f>
+        <v>2016-06-08</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f>D17</f>
+        <v>675</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (126, '2016-06-08', 4, 675);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"2016-06-08"</f>
+        <v>2016-06-08</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f>D24</f>
+        <v>675</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (127, '2016-06-08', 4, 675);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"2016-06-11"</f>
+        <v>2016-06-11</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <f>D25</f>
+        <v>675</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (128, '2016-06-11', 6, 675);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A28 &amp; ", " &amp; B28 &amp; ", " &amp; C28 &amp; ", " &amp; D28 &amp; ", " &amp; E28 &amp; ", " &amp; F28 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f>'2012'!A93 + 1</f>
+        <v>457</v>
+      </c>
+      <c r="B29" s="3">
+        <f>A12</f>
+        <v>114</v>
+      </c>
+      <c r="C29" s="3">
+        <v>675</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3" t="str">
+        <f t="shared" ref="G29:G94" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (457, 114, 675, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>A29+1</f>
+        <v>458</v>
+      </c>
+      <c r="B30" s="3">
+        <f>B29</f>
+        <v>114</v>
+      </c>
+      <c r="C30" s="3">
+        <v>675</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (458, 114, 675, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" ref="A31:A36" si="7">A30+1</f>
+        <v>459</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B29</f>
+        <v>114</v>
+      </c>
+      <c r="C31" s="3">
+        <v>687</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (459, 114, 687, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="7"/>
+        <v>460</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B29</f>
+        <v>114</v>
+      </c>
+      <c r="C32" s="3">
+        <v>687</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (460, 114, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="7"/>
+        <v>461</v>
+      </c>
+      <c r="B33">
+        <f>B29+1</f>
+        <v>115</v>
+      </c>
+      <c r="C33" s="5">
+        <v>689</v>
+      </c>
+      <c r="D33" s="5">
+        <v>4</v>
+      </c>
+      <c r="E33" s="5">
+        <v>3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (461, 115, 689, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="7"/>
+        <v>462</v>
+      </c>
+      <c r="B34">
+        <f>B33</f>
+        <v>115</v>
+      </c>
+      <c r="C34" s="5">
+        <v>689</v>
+      </c>
+      <c r="D34" s="5">
+        <v>4</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (462, 115, 689, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="7"/>
+        <v>463</v>
+      </c>
+      <c r="B35">
+        <f>B33</f>
+        <v>115</v>
+      </c>
+      <c r="C35" s="5">
+        <v>685</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (463, 115, 685, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="7"/>
+        <v>464</v>
+      </c>
+      <c r="B36">
+        <f>B33</f>
+        <v>115</v>
+      </c>
+      <c r="C36" s="5">
+        <v>685</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (464, 115, 685, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f>A36+1</f>
+        <v>465</v>
+      </c>
+      <c r="B37" s="3">
+        <f>B33+1</f>
+        <v>116</v>
+      </c>
+      <c r="C37" s="3">
+        <v>675</v>
+      </c>
+      <c r="D37" s="3">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (465, 116, 675, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f>A37+1</f>
+        <v>466</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B37</f>
+        <v>116</v>
+      </c>
+      <c r="C38" s="3">
+        <v>675</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (466, 116, 675, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f>A38+1</f>
+        <v>467</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B37</f>
+        <v>116</v>
+      </c>
+      <c r="C39" s="3">
+        <v>689</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (467, 116, 689, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f>A39+1</f>
+        <v>468</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B37</f>
+        <v>116</v>
+      </c>
+      <c r="C40" s="3">
+        <v>689</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (468, 116, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <f>A40+1</f>
+        <v>469</v>
+      </c>
+      <c r="B41">
+        <f>B37+1</f>
+        <v>117</v>
+      </c>
+      <c r="C41" s="4">
+        <v>687</v>
+      </c>
+      <c r="D41" s="4">
+        <v>7</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (469, 117, 687, 7, 3, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" ref="A42:A94" si="8">A41+1</f>
+        <v>470</v>
+      </c>
+      <c r="B42">
+        <f>B41</f>
+        <v>117</v>
+      </c>
+      <c r="C42" s="4">
+        <v>687</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (470, 117, 687, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" si="8"/>
+        <v>471</v>
+      </c>
+      <c r="B43">
+        <f>B41</f>
+        <v>117</v>
+      </c>
+      <c r="C43" s="4">
+        <v>685</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (471, 117, 685, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="8"/>
+        <v>472</v>
+      </c>
+      <c r="B44">
+        <f>B41</f>
+        <v>117</v>
+      </c>
+      <c r="C44" s="4">
+        <v>685</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (472, 117, 685, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="8"/>
+        <v>473</v>
+      </c>
+      <c r="B45" s="3">
+        <f>B41+1</f>
+        <v>118</v>
+      </c>
+      <c r="C45" s="3">
+        <v>675</v>
+      </c>
+      <c r="D45" s="3">
+        <v>8</v>
+      </c>
+      <c r="E45" s="6">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (473, 118, 675, 8, 3, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="8"/>
+        <v>474</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B45</f>
+        <v>118</v>
+      </c>
+      <c r="C46" s="3">
+        <v>675</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (474, 118, 675, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="8"/>
+        <v>475</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B45</f>
+        <v>118</v>
+      </c>
+      <c r="C47" s="3">
+        <v>685</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (475, 118, 685, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="8"/>
+        <v>476</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B45</f>
+        <v>118</v>
+      </c>
+      <c r="C48" s="3">
+        <v>685</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (476, 118, 685, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <f t="shared" si="8"/>
+        <v>477</v>
+      </c>
+      <c r="B49">
+        <f>B45+1</f>
+        <v>119</v>
+      </c>
+      <c r="C49" s="4">
+        <v>689</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (477, 119, 689, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="8"/>
+        <v>478</v>
+      </c>
+      <c r="B50">
+        <f>B49</f>
+        <v>119</v>
+      </c>
+      <c r="C50" s="4">
+        <v>689</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (478, 119, 689, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="8"/>
+        <v>479</v>
+      </c>
+      <c r="B51">
+        <f>B49</f>
+        <v>119</v>
+      </c>
+      <c r="C51" s="4">
+        <v>687</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (479, 119, 687, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="B52">
+        <f>B49</f>
+        <v>119</v>
+      </c>
+      <c r="C52" s="4">
+        <v>687</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (480, 119, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="8"/>
+        <v>481</v>
+      </c>
+      <c r="B53" s="3">
+        <f>B49+1</f>
+        <v>120</v>
+      </c>
+      <c r="C53" s="3">
+        <v>64</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (481, 120, 64, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="8"/>
+        <v>482</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B53</f>
+        <v>120</v>
+      </c>
+      <c r="C54" s="3">
+        <v>64</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (482, 120, 64, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="8"/>
+        <v>483</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B53</f>
+        <v>120</v>
+      </c>
+      <c r="C55" s="3">
+        <v>679</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (483, 120, 679, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="8"/>
+        <v>484</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B53</f>
+        <v>120</v>
+      </c>
+      <c r="C56" s="3">
+        <v>679</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (484, 120, 679, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="8"/>
+        <v>485</v>
+      </c>
+      <c r="B57">
+        <f>B53+1</f>
+        <v>121</v>
+      </c>
+      <c r="C57" s="4">
+        <v>678</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (485, 121, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="8"/>
+        <v>486</v>
+      </c>
+      <c r="B58">
+        <f>B57</f>
+        <v>121</v>
+      </c>
+      <c r="C58" s="4">
+        <v>678</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (486, 121, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="8"/>
+        <v>487</v>
+      </c>
+      <c r="B59">
+        <f>B57</f>
+        <v>121</v>
+      </c>
+      <c r="C59" s="4">
+        <v>677</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>3</v>
+      </c>
+      <c r="F59" s="4">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (487, 121, 677, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="8"/>
+        <v>488</v>
+      </c>
+      <c r="B60">
+        <f>B57</f>
+        <v>121</v>
+      </c>
+      <c r="C60" s="4">
+        <v>677</v>
+      </c>
+      <c r="D60" s="4">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (488, 121, 677, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="8"/>
+        <v>489</v>
+      </c>
+      <c r="B61" s="3">
+        <f>B57+1</f>
+        <v>122</v>
+      </c>
+      <c r="C61" s="3">
+        <v>678</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
+      <c r="G61" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (489, 122, 678, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="8"/>
+        <v>490</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B61</f>
+        <v>122</v>
+      </c>
+      <c r="C62" s="3">
+        <v>678</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (490, 122, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="8"/>
+        <v>491</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B61</f>
+        <v>122</v>
+      </c>
+      <c r="C63" s="3">
+        <v>64</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3">
+        <v>2</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (491, 122, 64, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="8"/>
+        <v>492</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B61</f>
+        <v>122</v>
+      </c>
+      <c r="C64" s="3">
+        <v>64</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (492, 122, 64, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <f t="shared" si="8"/>
+        <v>493</v>
+      </c>
+      <c r="B65">
+        <f>B61+1</f>
+        <v>123</v>
+      </c>
+      <c r="C65" s="4">
+        <v>677</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="5">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (493, 123, 677, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="8"/>
+        <v>494</v>
+      </c>
+      <c r="B66">
+        <f>B65</f>
+        <v>123</v>
+      </c>
+      <c r="C66" s="4">
+        <v>677</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (494, 123, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="8"/>
+        <v>495</v>
+      </c>
+      <c r="B67">
+        <f>B65</f>
+        <v>123</v>
+      </c>
+      <c r="C67" s="4">
+        <v>679</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>3</v>
+      </c>
+      <c r="F67" s="4">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (495, 123, 679, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="8"/>
+        <v>496</v>
+      </c>
+      <c r="B68">
+        <f>B65</f>
+        <v>123</v>
+      </c>
+      <c r="C68" s="4">
+        <v>679</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (496, 123, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="8"/>
+        <v>497</v>
+      </c>
+      <c r="B69" s="3">
+        <f>B65+1</f>
+        <v>124</v>
+      </c>
+      <c r="C69" s="3">
+        <v>679</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>2</v>
+      </c>
+      <c r="G69" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (497, 124, 679, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="8"/>
+        <v>498</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B69</f>
+        <v>124</v>
+      </c>
+      <c r="C70" s="3">
+        <v>679</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (498, 124, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="8"/>
+        <v>499</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B69</f>
+        <v>124</v>
+      </c>
+      <c r="C71" s="3">
+        <v>678</v>
+      </c>
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+      <c r="E71" s="3">
+        <v>3</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (499, 124, 678, 3, 3, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B69</f>
+        <v>124</v>
+      </c>
+      <c r="C72" s="3">
+        <v>678</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (500, 124, 678, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <f t="shared" si="8"/>
+        <v>501</v>
+      </c>
+      <c r="B73">
+        <f>B69+1</f>
+        <v>125</v>
+      </c>
+      <c r="C73" s="4">
+        <v>64</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5">
+        <v>3</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (501, 125, 64, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="8"/>
+        <v>502</v>
+      </c>
+      <c r="B74">
+        <f>B73</f>
+        <v>125</v>
+      </c>
+      <c r="C74" s="4">
+        <v>64</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (502, 125, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="8"/>
+        <v>503</v>
+      </c>
+      <c r="B75">
+        <f>B73</f>
+        <v>125</v>
+      </c>
+      <c r="C75" s="4">
+        <v>677</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (503, 125, 677, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="8"/>
+        <v>504</v>
+      </c>
+      <c r="B76">
+        <f>B73</f>
+        <v>125</v>
+      </c>
+      <c r="C76" s="4">
+        <v>677</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (504, 125, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="8"/>
+        <v>505</v>
+      </c>
+      <c r="B77" s="3">
+        <f>B73+1</f>
+        <v>126</v>
+      </c>
+      <c r="C77" s="3">
+        <v>64</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>3</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (505, 126, 64, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="8"/>
+        <v>506</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B77</f>
+        <v>126</v>
+      </c>
+      <c r="C78" s="3">
+        <v>64</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (506, 126, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="8"/>
+        <v>507</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B77</f>
+        <v>126</v>
+      </c>
+      <c r="C79" s="3">
+        <v>687</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (507, 126, 687, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="8"/>
+        <v>508</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B77</f>
+        <v>126</v>
+      </c>
+      <c r="C80" s="3">
+        <v>687</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (508, 126, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <f t="shared" si="8"/>
+        <v>509</v>
+      </c>
+      <c r="B81">
+        <f>B77+1</f>
+        <v>127</v>
+      </c>
+      <c r="C81" s="4">
+        <v>675</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" s="5">
+        <v>3</v>
+      </c>
+      <c r="F81" s="4">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (509, 127, 675, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="8"/>
+        <v>510</v>
+      </c>
+      <c r="B82">
+        <f>B81</f>
+        <v>127</v>
+      </c>
+      <c r="C82" s="4">
+        <v>675</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (510, 127, 675, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="8"/>
+        <v>511</v>
+      </c>
+      <c r="B83">
+        <f>B81</f>
+        <v>127</v>
+      </c>
+      <c r="C83" s="4">
+        <v>677</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (511, 127, 677, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="8"/>
+        <v>512</v>
+      </c>
+      <c r="B84">
+        <f>B81</f>
+        <v>127</v>
+      </c>
+      <c r="C84" s="4">
+        <v>677</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (512, 127, 677, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="8"/>
+        <v>513</v>
+      </c>
+      <c r="B85" s="3">
+        <f>B81+1</f>
+        <v>128</v>
+      </c>
+      <c r="C85" s="3">
+        <v>64</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>2</v>
+      </c>
+      <c r="G85" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (513, 128, 64, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="8"/>
+        <v>514</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B85</f>
+        <v>128</v>
+      </c>
+      <c r="C86" s="3">
+        <v>64</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>1</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (514, 128, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="8"/>
+        <v>515</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B85</f>
+        <v>128</v>
+      </c>
+      <c r="C87" s="3">
+        <v>675</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (515, 128, 675, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="8"/>
+        <v>516</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B85</f>
+        <v>128</v>
+      </c>
+      <c r="C88" s="3">
+        <v>675</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (516, 128, 675, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f t="shared" si="8"/>
+        <v>517</v>
+      </c>
+      <c r="B89" s="3">
+        <f t="shared" ref="B89:B94" si="9">B86</f>
+        <v>128</v>
+      </c>
+      <c r="C89" s="3">
+        <v>64</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (517, 128, 64, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f t="shared" si="8"/>
+        <v>518</v>
+      </c>
+      <c r="B90" s="3">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="C90" s="3">
+        <v>64</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>3</v>
+      </c>
+      <c r="G90" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (518, 128, 64, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="8"/>
+        <v>519</v>
+      </c>
+      <c r="B91" s="3">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="C91" s="3">
+        <v>675</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1</v>
+      </c>
+      <c r="F91" s="3">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (519, 128, 675, 0, 1, 4);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f t="shared" si="8"/>
+        <v>520</v>
+      </c>
+      <c r="B92" s="3">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="C92" s="3">
+        <v>675</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+      <c r="F92" s="3">
+        <v>3</v>
+      </c>
+      <c r="G92" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (520, 128, 675, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="8"/>
+        <v>521</v>
+      </c>
+      <c r="B93" s="3">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="C93" s="3">
+        <v>64</v>
+      </c>
+      <c r="D93" s="3">
+        <v>4</v>
+      </c>
+      <c r="E93" s="3">
+        <v>7</v>
+      </c>
+      <c r="F93" s="3">
+        <v>7</v>
+      </c>
+      <c r="G93" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (521, 128, 64, 4, 7, 7);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="8"/>
+        <v>522</v>
+      </c>
+      <c r="B94" s="3">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="C94" s="3">
+        <v>675</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2</v>
+      </c>
+      <c r="E94" s="3">
+        <v>7</v>
+      </c>
+      <c r="F94" s="3">
+        <v>7</v>
+      </c>
+      <c r="G94" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (522, 128, 675, 2, 7, 7);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
@@ -10114,7 +12387,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D18" si="2">D3</f>
+        <f t="shared" ref="D4:D16" si="2">D3</f>
         <v>61</v>
       </c>
       <c r="G4" t="str">
@@ -12215,7 +14488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13762,4 +16035,2244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A1 &amp; ", " &amp; B1 &amp; ", '" &amp; C1 &amp; "', " &amp; D1 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (id, tournament, 'group_code', squad);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <f>'2002'!A9 + 1</f>
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>2012</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>685</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"insert into group_stage (id, tournament, group_code, squad) values (" &amp; A2 &amp; ", " &amp; B2 &amp; ", '" &amp; C2 &amp; "', " &amp; D2 &amp;  ");"</f>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (29, 2012, 'A', 685);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f t="shared" ref="A3:A9" si="1">A2+1</f>
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="2">B2</f>
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>689</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (30, 2012, 'A', 689);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>678</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (31, 2012, 'A', 678);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>687</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (32, 2012, 'A', 687);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>679</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (33, 2012, 'B', 679);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (34, 2012, 'B', 64);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>677</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (35, 2012, 'B', 677);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="2"/>
+        <v>2012</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>675</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into group_stage (id, tournament, group_code, squad) values (36, 2012, 'B', 675);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A11 &amp; ", '" &amp; B11 &amp; "', " &amp; C11 &amp; ", " &amp; D11 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (matchid, 'matchdate', game_type, country);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <f>'2008'!A13 + 1</f>
+        <v>98</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"2012-06-01"</f>
+        <v>2012-06-01</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>677</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" ref="G12:G27" si="3">"insert into game (matchid, matchdate, game_type, country) values (" &amp; A12 &amp; ", '" &amp; B12 &amp; "', " &amp; C12 &amp; ", " &amp; D12 &amp;  ");"</f>
+        <v>insert into game (matchid, matchdate, game_type, country) values (98, '2012-06-01', 2, 677);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>A12+1</f>
+        <v>99</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"2012-06-01"</f>
+        <v>2012-06-01</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f>D12</f>
+        <v>677</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (99, '2012-06-01', 2, 677);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" ref="A14:A27" si="4">A13+1</f>
+        <v>100</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"2012-06-03"</f>
+        <v>2012-06-03</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f>D13</f>
+        <v>677</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (100, '2012-06-03', 2, 677);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"2012-06-03"</f>
+        <v>2012-06-03</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>D14</f>
+        <v>677</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (101, '2012-06-03', 2, 677);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"2012-06-05"</f>
+        <v>2012-06-05</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>D15</f>
+        <v>677</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (102, '2012-06-05', 2, 677);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"2012-06-05"</f>
+        <v>2012-06-05</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <f>D16</f>
+        <v>677</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (103, '2012-06-05', 2, 677);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"2012-06-02"</f>
+        <v>2012-06-02</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D23" si="5">D17</f>
+        <v>677</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (104, '2012-06-02', 2, 677);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"2012-06-02"</f>
+        <v>2012-06-02</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>677</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (105, '2012-06-02', 2, 677);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"2012-06-04"</f>
+        <v>2012-06-04</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>677</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (106, '2012-06-04', 2, 677);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"2012-06-04"</f>
+        <v>2012-06-04</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>677</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (107, '2012-06-04', 2, 677);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"2012-06-06"</f>
+        <v>2012-06-06</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>677</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (108, '2012-06-06', 2, 677);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"2012-06-06"</f>
+        <v>2012-06-06</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="5"/>
+        <v>677</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (109, '2012-06-06', 2, 677);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"2012-06-08"</f>
+        <v>2012-06-08</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <f>D17</f>
+        <v>677</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (110, '2012-06-08', 4, 677);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"2012-06-08"</f>
+        <v>2012-06-08</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <f>D24</f>
+        <v>677</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (111, '2012-06-08', 4, 677);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"2012-06-10"</f>
+        <v>2012-06-10</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f>D25</f>
+        <v>677</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (112, '2012-06-10', 5, 677);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>"2012-06-10"</f>
+        <v>2012-06-10</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <f>D26</f>
+        <v>677</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into game (matchid, matchdate, game_type, country) values (113, '2012-06-10', 6, 677);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A29 &amp; ", " &amp; B29 &amp; ", " &amp; C29 &amp; ", " &amp; D29 &amp; ", " &amp; E29 &amp; ", " &amp; F29 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>'2008'!A63 + 1</f>
+        <v>393</v>
+      </c>
+      <c r="B30" s="3">
+        <f>A12</f>
+        <v>98</v>
+      </c>
+      <c r="C30" s="3">
+        <v>685</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="str">
+        <f t="shared" ref="G30:G89" si="6">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A30 &amp; ", " &amp; B30 &amp; ", " &amp; C30 &amp; ", " &amp; D30 &amp; ", " &amp; E30 &amp; ", " &amp; F30 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (393, 98, 685, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f>A30+1</f>
+        <v>394</v>
+      </c>
+      <c r="B31" s="3">
+        <f>B30</f>
+        <v>98</v>
+      </c>
+      <c r="C31" s="3">
+        <v>685</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (394, 98, 685, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" ref="A32:A37" si="7">A31+1</f>
+        <v>395</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B30</f>
+        <v>98</v>
+      </c>
+      <c r="C32" s="3">
+        <v>689</v>
+      </c>
+      <c r="D32" s="3">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (395, 98, 689, 10, 3, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="7"/>
+        <v>396</v>
+      </c>
+      <c r="B33" s="3">
+        <f>B30</f>
+        <v>98</v>
+      </c>
+      <c r="C33" s="3">
+        <v>689</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (396, 98, 689, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="7"/>
+        <v>397</v>
+      </c>
+      <c r="B34">
+        <f>B30+1</f>
+        <v>99</v>
+      </c>
+      <c r="C34" s="5">
+        <v>678</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (397, 99, 678, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="7"/>
+        <v>398</v>
+      </c>
+      <c r="B35">
+        <f>B34</f>
+        <v>99</v>
+      </c>
+      <c r="C35" s="5">
+        <v>678</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (398, 99, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="7"/>
+        <v>399</v>
+      </c>
+      <c r="B36">
+        <f>B34</f>
+        <v>99</v>
+      </c>
+      <c r="C36" s="5">
+        <v>687</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (399, 99, 687, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="B37">
+        <f>B34</f>
+        <v>99</v>
+      </c>
+      <c r="C37" s="5">
+        <v>687</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (400, 99, 687, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f>A37+1</f>
+        <v>401</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B34+1</f>
+        <v>100</v>
+      </c>
+      <c r="C38" s="3">
+        <v>678</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (401, 100, 678, 5, 3, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f>A38+1</f>
+        <v>402</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B38</f>
+        <v>100</v>
+      </c>
+      <c r="C39" s="3">
+        <v>678</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (402, 100, 678, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f>A39+1</f>
+        <v>403</v>
+      </c>
+      <c r="B40" s="3">
+        <f>B38</f>
+        <v>100</v>
+      </c>
+      <c r="C40" s="3">
+        <v>685</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (403, 100, 685, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f>A40+1</f>
+        <v>404</v>
+      </c>
+      <c r="B41" s="3">
+        <f>B38</f>
+        <v>100</v>
+      </c>
+      <c r="C41" s="3">
+        <v>685</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (404, 100, 685, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f>A41+1</f>
+        <v>405</v>
+      </c>
+      <c r="B42">
+        <f>B38+1</f>
+        <v>101</v>
+      </c>
+      <c r="C42" s="4">
+        <v>689</v>
+      </c>
+      <c r="D42" s="4">
+        <v>4</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (405, 101, 689, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <f t="shared" ref="A43:A93" si="8">A42+1</f>
+        <v>406</v>
+      </c>
+      <c r="B43">
+        <f>B42</f>
+        <v>101</v>
+      </c>
+      <c r="C43" s="4">
+        <v>689</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (406, 101, 689, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <f t="shared" si="8"/>
+        <v>407</v>
+      </c>
+      <c r="B44">
+        <f>B42</f>
+        <v>101</v>
+      </c>
+      <c r="C44" s="4">
+        <v>687</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (407, 101, 687, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <f t="shared" si="8"/>
+        <v>408</v>
+      </c>
+      <c r="B45">
+        <f>B42</f>
+        <v>101</v>
+      </c>
+      <c r="C45" s="4">
+        <v>687</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (408, 101, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="8"/>
+        <v>409</v>
+      </c>
+      <c r="B46" s="3">
+        <f>B42+1</f>
+        <v>102</v>
+      </c>
+      <c r="C46" s="3">
+        <v>687</v>
+      </c>
+      <c r="D46" s="3">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (409, 102, 687, 9, 3, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="8"/>
+        <v>410</v>
+      </c>
+      <c r="B47" s="3">
+        <f>B46</f>
+        <v>102</v>
+      </c>
+      <c r="C47" s="3">
+        <v>687</v>
+      </c>
+      <c r="D47" s="3">
+        <v>6</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (410, 102, 687, 6, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="8"/>
+        <v>411</v>
+      </c>
+      <c r="B48" s="3">
+        <f>B46</f>
+        <v>102</v>
+      </c>
+      <c r="C48" s="3">
+        <v>685</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2</v>
+      </c>
+      <c r="G48" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (411, 102, 685, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="8"/>
+        <v>412</v>
+      </c>
+      <c r="B49" s="3">
+        <f>B46</f>
+        <v>102</v>
+      </c>
+      <c r="C49" s="3">
+        <v>685</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (412, 102, 685, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="8"/>
+        <v>413</v>
+      </c>
+      <c r="B50">
+        <f>B46+1</f>
+        <v>103</v>
+      </c>
+      <c r="C50" s="4">
+        <v>689</v>
+      </c>
+      <c r="D50" s="4">
+        <v>4</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (413, 103, 689, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" si="8"/>
+        <v>414</v>
+      </c>
+      <c r="B51">
+        <f>B50</f>
+        <v>103</v>
+      </c>
+      <c r="C51" s="4">
+        <v>689</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (414, 103, 689, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <f t="shared" si="8"/>
+        <v>415</v>
+      </c>
+      <c r="B52">
+        <f>B50</f>
+        <v>103</v>
+      </c>
+      <c r="C52" s="4">
+        <v>678</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (415, 103, 678, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <f t="shared" si="8"/>
+        <v>416</v>
+      </c>
+      <c r="B53">
+        <f>B50</f>
+        <v>103</v>
+      </c>
+      <c r="C53" s="4">
+        <v>678</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (416, 103, 678, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="8"/>
+        <v>417</v>
+      </c>
+      <c r="B54" s="3">
+        <f>B50+1</f>
+        <v>104</v>
+      </c>
+      <c r="C54" s="3">
+        <v>679</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (417, 104, 679, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="8"/>
+        <v>418</v>
+      </c>
+      <c r="B55" s="3">
+        <f>B54</f>
+        <v>104</v>
+      </c>
+      <c r="C55" s="3">
+        <v>679</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (418, 104, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="8"/>
+        <v>419</v>
+      </c>
+      <c r="B56" s="3">
+        <f>B54</f>
+        <v>104</v>
+      </c>
+      <c r="C56" s="3">
+        <v>64</v>
+      </c>
+      <c r="D56" s="3">
+        <v>1</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (419, 104, 64, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="8"/>
+        <v>420</v>
+      </c>
+      <c r="B57" s="3">
+        <f>B54</f>
+        <v>104</v>
+      </c>
+      <c r="C57" s="3">
+        <v>64</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (420, 104, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="8"/>
+        <v>421</v>
+      </c>
+      <c r="B58">
+        <f>B54+1</f>
+        <v>105</v>
+      </c>
+      <c r="C58" s="4">
+        <v>677</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>3</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (421, 105, 677, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="8"/>
+        <v>422</v>
+      </c>
+      <c r="B59">
+        <f>B58</f>
+        <v>105</v>
+      </c>
+      <c r="C59" s="4">
+        <v>677</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (422, 105, 677, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="8"/>
+        <v>423</v>
+      </c>
+      <c r="B60">
+        <f>B58</f>
+        <v>105</v>
+      </c>
+      <c r="C60" s="4">
+        <v>675</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (423, 105, 675, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="8"/>
+        <v>424</v>
+      </c>
+      <c r="B61">
+        <f>B58</f>
+        <v>105</v>
+      </c>
+      <c r="C61" s="4">
+        <v>675</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (424, 105, 675, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="8"/>
+        <v>425</v>
+      </c>
+      <c r="B62" s="3">
+        <f>B58+1</f>
+        <v>106</v>
+      </c>
+      <c r="C62" s="3">
+        <v>675</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>2</v>
+      </c>
+      <c r="G62" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (425, 106, 675, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="8"/>
+        <v>426</v>
+      </c>
+      <c r="B63" s="3">
+        <f>B62</f>
+        <v>106</v>
+      </c>
+      <c r="C63" s="3">
+        <v>675</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (426, 106, 675, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="8"/>
+        <v>427</v>
+      </c>
+      <c r="B64" s="3">
+        <f>B62</f>
+        <v>106</v>
+      </c>
+      <c r="C64" s="3">
+        <v>64</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>3</v>
+      </c>
+      <c r="F64" s="3">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (427, 106, 64, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="8"/>
+        <v>428</v>
+      </c>
+      <c r="B65" s="3">
+        <f>B62</f>
+        <v>106</v>
+      </c>
+      <c r="C65" s="3">
+        <v>64</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (428, 106, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="8"/>
+        <v>429</v>
+      </c>
+      <c r="B66">
+        <f>B62+1</f>
+        <v>107</v>
+      </c>
+      <c r="C66" s="4">
+        <v>679</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (429, 107, 679, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <f t="shared" si="8"/>
+        <v>430</v>
+      </c>
+      <c r="B67">
+        <f>B66</f>
+        <v>107</v>
+      </c>
+      <c r="C67" s="4">
+        <v>679</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (430, 107, 679, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="8"/>
+        <v>431</v>
+      </c>
+      <c r="B68">
+        <f>B66</f>
+        <v>107</v>
+      </c>
+      <c r="C68" s="4">
+        <v>677</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (431, 107, 677, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <f t="shared" si="8"/>
+        <v>432</v>
+      </c>
+      <c r="B69">
+        <f>B66</f>
+        <v>107</v>
+      </c>
+      <c r="C69" s="4">
+        <v>677</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (432, 107, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="8"/>
+        <v>433</v>
+      </c>
+      <c r="B70" s="3">
+        <f>B66+1</f>
+        <v>108</v>
+      </c>
+      <c r="C70" s="3">
+        <v>675</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="3">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (433, 108, 675, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="8"/>
+        <v>434</v>
+      </c>
+      <c r="B71" s="3">
+        <f>B70</f>
+        <v>108</v>
+      </c>
+      <c r="C71" s="3">
+        <v>675</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (434, 108, 675, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="8"/>
+        <v>435</v>
+      </c>
+      <c r="B72" s="3">
+        <f>B70</f>
+        <v>108</v>
+      </c>
+      <c r="C72" s="3">
+        <v>679</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>2</v>
+      </c>
+      <c r="G72" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (435, 108, 679, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f t="shared" si="8"/>
+        <v>436</v>
+      </c>
+      <c r="B73" s="3">
+        <f>B70</f>
+        <v>108</v>
+      </c>
+      <c r="C73" s="3">
+        <v>679</v>
+      </c>
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (436, 108, 679, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <f t="shared" si="8"/>
+        <v>437</v>
+      </c>
+      <c r="B74">
+        <f>B70+1</f>
+        <v>109</v>
+      </c>
+      <c r="C74" s="4">
+        <v>64</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (437, 109, 64, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <f t="shared" si="8"/>
+        <v>438</v>
+      </c>
+      <c r="B75">
+        <f>B74</f>
+        <v>109</v>
+      </c>
+      <c r="C75" s="4">
+        <v>64</v>
+      </c>
+      <c r="D75" s="4">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (438, 109, 64, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <f t="shared" si="8"/>
+        <v>439</v>
+      </c>
+      <c r="B76">
+        <f>B74</f>
+        <v>109</v>
+      </c>
+      <c r="C76" s="4">
+        <v>677</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (439, 109, 677, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <f t="shared" si="8"/>
+        <v>440</v>
+      </c>
+      <c r="B77">
+        <f>B74</f>
+        <v>109</v>
+      </c>
+      <c r="C77" s="4">
+        <v>677</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (440, 109, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="8"/>
+        <v>441</v>
+      </c>
+      <c r="B78" s="3">
+        <f>B74+1</f>
+        <v>110</v>
+      </c>
+      <c r="C78" s="3">
+        <v>689</v>
+      </c>
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>3</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2</v>
+      </c>
+      <c r="G78" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (441, 110, 689, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="8"/>
+        <v>442</v>
+      </c>
+      <c r="B79" s="3">
+        <f>B78</f>
+        <v>110</v>
+      </c>
+      <c r="C79" s="3">
+        <v>689</v>
+      </c>
+      <c r="D79" s="3">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (442, 110, 689, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="8"/>
+        <v>443</v>
+      </c>
+      <c r="B80" s="3">
+        <f>B78</f>
+        <v>110</v>
+      </c>
+      <c r="C80" s="3">
+        <v>677</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (443, 110, 677, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="8"/>
+        <v>444</v>
+      </c>
+      <c r="B81" s="3">
+        <f>B78</f>
+        <v>110</v>
+      </c>
+      <c r="C81" s="3">
+        <v>677</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (444, 110, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <f t="shared" si="8"/>
+        <v>445</v>
+      </c>
+      <c r="B82">
+        <f>B78+1</f>
+        <v>111</v>
+      </c>
+      <c r="C82" s="4">
+        <v>64</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>2</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (445, 111, 64, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <f t="shared" si="8"/>
+        <v>446</v>
+      </c>
+      <c r="B83">
+        <f>B82</f>
+        <v>111</v>
+      </c>
+      <c r="C83" s="4">
+        <v>64</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (446, 111, 64, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <f t="shared" si="8"/>
+        <v>447</v>
+      </c>
+      <c r="B84">
+        <f>B82</f>
+        <v>111</v>
+      </c>
+      <c r="C84" s="4">
+        <v>687</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="5">
+        <v>3</v>
+      </c>
+      <c r="F84" s="4">
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (447, 111, 687, 2, 3, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <f t="shared" si="8"/>
+        <v>448</v>
+      </c>
+      <c r="B85">
+        <f>B82</f>
+        <v>111</v>
+      </c>
+      <c r="C85" s="4">
+        <v>687</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="5">
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (448, 111, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="8"/>
+        <v>449</v>
+      </c>
+      <c r="B86" s="3">
+        <f>B82+1</f>
+        <v>112</v>
+      </c>
+      <c r="C86" s="3">
+        <v>677</v>
+      </c>
+      <c r="D86" s="3">
+        <v>3</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>2</v>
+      </c>
+      <c r="G86" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (449, 112, 677, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
+      <c r="B87" s="3">
+        <f>B86</f>
+        <v>112</v>
+      </c>
+      <c r="C87" s="3">
+        <v>677</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (450, 112, 677, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="8"/>
+        <v>451</v>
+      </c>
+      <c r="B88" s="3">
+        <f>B86</f>
+        <v>112</v>
+      </c>
+      <c r="C88" s="3">
+        <v>64</v>
+      </c>
+      <c r="D88" s="3">
+        <v>4</v>
+      </c>
+      <c r="E88" s="3">
+        <v>3</v>
+      </c>
+      <c r="F88" s="3">
+        <v>2</v>
+      </c>
+      <c r="G88" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (451, 112, 64, 4, 3, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f t="shared" si="8"/>
+        <v>452</v>
+      </c>
+      <c r="B89" s="3">
+        <f>B86</f>
+        <v>112</v>
+      </c>
+      <c r="C89" s="3">
+        <v>64</v>
+      </c>
+      <c r="D89" s="3">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (452, 112, 64, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <f t="shared" si="8"/>
+        <v>453</v>
+      </c>
+      <c r="B90">
+        <f>B86+1</f>
+        <v>113</v>
+      </c>
+      <c r="C90" s="4">
+        <v>689</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
+        <v>3</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" ref="G90:G93" si="9">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A90 &amp; ", " &amp; B90 &amp; ", " &amp; C90 &amp; ", " &amp; D90 &amp; ", " &amp; E90 &amp; ", " &amp; F90 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (453, 113, 689, 1, 3, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <f t="shared" si="8"/>
+        <v>454</v>
+      </c>
+      <c r="B91">
+        <f>B90</f>
+        <v>113</v>
+      </c>
+      <c r="C91" s="4">
+        <v>689</v>
+      </c>
+      <c r="D91" s="4">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (454, 113, 689, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <f t="shared" si="8"/>
+        <v>455</v>
+      </c>
+      <c r="B92">
+        <f>B90</f>
+        <v>113</v>
+      </c>
+      <c r="C92" s="4">
+        <v>687</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5">
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>2</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (455, 113, 687, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <f t="shared" si="8"/>
+        <v>456</v>
+      </c>
+      <c r="B93">
+        <f>B90</f>
+        <v>113</v>
+      </c>
+      <c r="C93" s="4">
+        <v>687</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" s="5">
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="9"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (456, 113, 687, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Scripts/ofcnationscup/ofcnationscup.xlsx
+++ b/Scripts/ofcnationscup/ofcnationscup.xlsx
@@ -2255,7 +2255,7 @@
         <v>675</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="3"/>
+        <f>"insert into game (matchid, matchdate, game_type, country) values (" &amp; A14 &amp; ", '" &amp; B14 &amp; "', " &amp; C14 &amp; ", " &amp; D14 &amp;  ");"</f>
         <v>insert into game (matchid, matchdate, game_type, country) values (116, '2016-06-01', 2, 675);</v>
       </c>
     </row>
